--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="10755" windowHeight="4455" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="10755" windowHeight="4455"/>
   </bookViews>
   <sheets>
-    <sheet name="模型控制&amp;正常控制" sheetId="1" r:id="rId1"/>
-    <sheet name="模型给药&amp;控制" sheetId="2" r:id="rId2"/>
-    <sheet name="模型给药&amp;正常控制" sheetId="3" r:id="rId3"/>
+    <sheet name="TgCvWtC" sheetId="1" r:id="rId1"/>
+    <sheet name="TgLvC" sheetId="2" r:id="rId2"/>
+    <sheet name="TgLvWtC" sheetId="3" r:id="rId3"/>
     <sheet name="analysis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="212">
   <si>
     <t>File</t>
   </si>
@@ -510,6 +510,201 @@
   </si>
   <si>
     <t>Mean2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgLvC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgCvWtC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgLvWtC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc/ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C Ent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pa S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S Tr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pr S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D L Ent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A29b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc/ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc/ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1ULp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2ML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc/ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corpus callosum / External capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subiculum transition area </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Presubiculum PrS </t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 29b</t>
+  </si>
+  <si>
+    <t>Cingulate cortex, area 30</t>
+  </si>
+  <si>
+    <t>Corpus callosum / External capsule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temporal association area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ectorhinal cortex</t>
+  </si>
+  <si>
+    <t>Secondary auditory cortex, ventral area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary somatosensory cortex </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subiculum transition area </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A29b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Caudomedial entorhinal cortex </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parasubiculum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorsolateral entorhinal cortex </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Postsubiculum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorsal subiculum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corpus callosum / External capsule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary somatosensory cortex </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +712,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +727,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Gulliver"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -556,8 +764,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,7 +802,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -600,7 +814,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$G$1</c:f>
+              <c:f>analysis!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -612,7 +826,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$F$2:$F$5</c:f>
+              <c:f>analysis!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -632,21 +846,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$G$2:$G$5</c:f>
+              <c:f>analysis!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.169454166666667E-2</c:v>
+                  <c:v>0.13324200000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.695623809523809E-2</c:v>
+                  <c:v>0.14893400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0869230769230774E-3</c:v>
+                  <c:v>0.14841650000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3154961538461539E-2</c:v>
+                  <c:v>0.180842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +871,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$H$1</c:f>
+              <c:f>analysis!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -669,7 +883,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$F$2:$F$5</c:f>
+              <c:f>analysis!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -689,21 +903,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$H$2:$H$5</c:f>
+              <c:f>analysis!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.3995861152965806E-2</c:v>
+                  <c:v>3.4146296767826996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9914613265236269E-2</c:v>
+                  <c:v>1.8372048388788881E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0502210393303903E-2</c:v>
+                  <c:v>4.1550537115254561E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4660889641849598E-2</c:v>
+                  <c:v>4.9082893562766433E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,11 +933,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="59354496"/>
-        <c:axId val="63639936"/>
+        <c:axId val="84919424"/>
+        <c:axId val="84920960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59354496"/>
+        <c:axId val="84919424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +946,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63639936"/>
+        <c:crossAx val="84920960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -740,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63639936"/>
+        <c:axId val="84920960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59354496"/>
+        <c:crossAx val="84919424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -774,7 +988,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -800,7 +1014,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$G$8</c:f>
+              <c:f>analysis!$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -812,7 +1026,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$F$9:$F$12</c:f>
+              <c:f>analysis!$A$73:$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -832,21 +1046,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$G$9:$G$12</c:f>
+              <c:f>analysis!$B$73:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.7843916666666665E-2</c:v>
+                  <c:v>2.3694791666666673E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4012374999999995E-2</c:v>
+                  <c:v>7.3287999999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0811999999999996E-2</c:v>
+                  <c:v>1.408426923076923E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6872615384615386E-2</c:v>
+                  <c:v>2.5385769230769212E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +1071,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$H$8</c:f>
+              <c:f>analysis!$C$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -869,7 +1083,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$F$9:$F$12</c:f>
+              <c:f>analysis!$A$73:$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -889,21 +1103,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$H$9:$H$12</c:f>
+              <c:f>analysis!$C$73:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0930312993329089E-2</c:v>
+                  <c:v>6.0567066024208208E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5172933682324066E-2</c:v>
+                  <c:v>6.1957928542014651E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6908679976959586E-2</c:v>
+                  <c:v>5.8119416016720396E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5450986708679526E-2</c:v>
+                  <c:v>6.1665873190394759E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,11 +1133,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="67342336"/>
-        <c:axId val="67343872"/>
+        <c:axId val="40877056"/>
+        <c:axId val="40882944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67342336"/>
+        <c:axId val="40877056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +1146,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67343872"/>
+        <c:crossAx val="40882944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -940,7 +1154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67343872"/>
+        <c:axId val="40882944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +1166,207 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67342336"/>
+        <c:crossAx val="40877056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.169454166666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0004874999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0869230769230774E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3154961538461539E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>方差</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.3995861152965806E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9914613265236269E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0502210393303903E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4660889641849598E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="40177024"/>
+        <c:axId val="40211584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40177024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40211584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40211584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40177024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,10 +1385,614 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$38:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$38:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7843916666666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4012374999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0811999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6872615384615386E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>方差</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$38:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$C$38:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0930312993329089E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5172933682324066E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6908679976959586E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5450986708679526E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="40233216"/>
+        <c:axId val="40239104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40233216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40239104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40239104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40233216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$56:$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$56:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.2528541666666682E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10745254166666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.727296153846154E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2496961538461538E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>方差</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$56:$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$C$56:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.4427483567036772E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8925549038502815E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3765093988228351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9625705645820671E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="40313984"/>
+        <c:axId val="40315520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40313984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40315520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40315520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40313984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$73:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$73:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3694791666666673E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3287999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.408426923076923E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5385769230769212E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$C$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>方差</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$73:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$C$73:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0567066024208208E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1957928542014651E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8119416016720396E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1665873190394759E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="40336768"/>
+        <c:axId val="40359040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40336768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40359040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40359040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40336768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1119,11 +2137,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="83332480"/>
-        <c:axId val="83424768"/>
+        <c:axId val="40408960"/>
+        <c:axId val="40410496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83332480"/>
+        <c:axId val="40408960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +2150,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83424768"/>
+        <c:crossAx val="40410496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1140,7 +2158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83424768"/>
+        <c:axId val="40410496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,14 +2170,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83332480"/>
+        <c:crossAx val="40408960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1174,7 +2191,207 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.169454166666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0004874999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0869230769230774E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3154961538461539E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>方差</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.3995861152965806E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9914613265236269E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0502210393303903E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4660889641849598E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="40706048"/>
+        <c:axId val="40707584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40706048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40707584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40707584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40706048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1200,7 +2417,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$L$1</c:f>
+              <c:f>analysis!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1212,7 +2429,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$K$2:$K$5</c:f>
+              <c:f>analysis!$A$38:$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1232,21 +2449,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$L$2:$L$5</c:f>
+              <c:f>analysis!$B$38:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.2528541666666682E-2</c:v>
+                  <c:v>3.7843916666666665E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10745254166666668</c:v>
+                  <c:v>9.4012374999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.727296153846154E-2</c:v>
+                  <c:v>5.0811999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2496961538461538E-2</c:v>
+                  <c:v>3.6872615384615386E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,7 +2474,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$M$1</c:f>
+              <c:f>analysis!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1269,7 +2486,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$K$2:$K$5</c:f>
+              <c:f>analysis!$A$38:$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1289,21 +2506,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$M$2:$M$5</c:f>
+              <c:f>analysis!$C$38:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.4427483567036772E-2</c:v>
+                  <c:v>4.0930312993329089E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8925549038502815E-2</c:v>
+                  <c:v>5.5172933682324066E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3765093988228351E-2</c:v>
+                  <c:v>5.6908679976959586E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9625705645820671E-2</c:v>
+                  <c:v>5.5450986708679526E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,11 +2536,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="65498112"/>
-        <c:axId val="65505152"/>
+        <c:axId val="40724736"/>
+        <c:axId val="40738816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65498112"/>
+        <c:axId val="40724736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +2549,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65505152"/>
+        <c:crossAx val="40738816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1340,7 +2557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65505152"/>
+        <c:axId val="40738816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,7 +2569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65498112"/>
+        <c:crossAx val="40724736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1371,10 +2588,11 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1400,7 +2618,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$L$8</c:f>
+              <c:f>analysis!$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1412,7 +2630,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$K$9:$K$12</c:f>
+              <c:f>analysis!$A$56:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1432,21 +2650,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$L$9:$L$12</c:f>
+              <c:f>analysis!$B$56:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3694791666666673E-2</c:v>
+                  <c:v>7.2528541666666682E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3287999999999978E-2</c:v>
+                  <c:v>0.10745254166666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.408426923076923E-2</c:v>
+                  <c:v>3.727296153846154E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5385769230769212E-3</c:v>
+                  <c:v>7.2496961538461538E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,7 +2675,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$M$8</c:f>
+              <c:f>analysis!$C$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1469,7 +2687,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$K$9:$K$12</c:f>
+              <c:f>analysis!$A$56:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1489,21 +2707,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$M$9:$M$12</c:f>
+              <c:f>analysis!$C$56:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.0567066024208208E-2</c:v>
+                  <c:v>6.4427483567036772E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1957928542014651E-2</c:v>
+                  <c:v>6.8925549038502815E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8119416016720396E-2</c:v>
+                  <c:v>4.3765093988228351E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1665873190394759E-2</c:v>
+                  <c:v>6.9625705645820671E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,11 +2737,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="85159936"/>
-        <c:axId val="85188992"/>
+        <c:axId val="40846080"/>
+        <c:axId val="40847616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85159936"/>
+        <c:axId val="40846080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +2750,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85188992"/>
+        <c:crossAx val="40847616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1540,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85188992"/>
+        <c:axId val="40847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +2770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85159936"/>
+        <c:crossAx val="40846080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1571,6 +2789,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1578,21 +2797,693 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76341</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3490294" y="2275187"/>
+          <a:ext cx="1081707" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76341</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3490293" y="2275187"/>
+          <a:ext cx="1081707" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76319</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99979</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3489325" y="2275187"/>
+          <a:ext cx="1081707" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1608,21 +3499,941 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76341</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3490294" y="2275187"/>
+          <a:ext cx="1081706" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76341</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3490294" y="2275187"/>
+          <a:ext cx="1081707" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76341</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3490293" y="2275187"/>
+          <a:ext cx="1081707" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76319</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99979</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3489325" y="2275187"/>
+          <a:ext cx="1081707" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4397</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461597</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1638,21 +4449,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1668,21 +4481,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1698,21 +4513,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="12" name="图表 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1727,6 +4544,153 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76341</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3490294" y="2275187"/>
+          <a:ext cx="1081706" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2018,8 +4982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:C109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3143,6 +6107,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3150,8 +6116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105:H109"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4580,6 +7546,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4587,8 +7554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103:K107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6017,304 +8984,561 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B1" t="s">
         <v>154</v>
       </c>
       <c r="C1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>156</v>
       </c>
       <c r="B2">
-        <f>AVERAGE('模型控制&amp;正常控制'!C2:C25)</f>
+        <f>AVERAGE(TgCvWtC!C2:C25)</f>
         <v>0.13324200000000003</v>
       </c>
       <c r="C2">
-        <f>_xlfn.STDEV.S('模型控制&amp;正常控制'!C2:C25)</f>
+        <f>_xlfn.STDEV.S(TgCvWtC!C2:C25)</f>
         <v>3.4146296767826996E-2</v>
       </c>
-      <c r="F2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2">
-        <f>AVERAGE('模型给药&amp;控制'!C2:C25)</f>
-        <v>5.169454166666667E-2</v>
-      </c>
-      <c r="H2">
-        <f>_xlfn.STDEV.S('模型给药&amp;控制'!C2:C25)</f>
-        <v>5.3995861152965806E-2</v>
-      </c>
       <c r="K2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2">
-        <f>AVERAGE('模型给药&amp;正常控制'!C2:C25)</f>
-        <v>7.2528541666666682E-2</v>
-      </c>
-      <c r="M2">
-        <f>_xlfn.STDEV.S('模型给药&amp;正常控制'!C2:C25)</f>
-        <v>6.4427483567036772E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>165</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>157</v>
       </c>
       <c r="B3">
-        <f>AVERAGE('模型控制&amp;正常控制'!C26,'模型控制&amp;正常控制'!C49)</f>
+        <f>AVERAGE(TgCvWtC!C26,TgCvWtC!C49)</f>
         <v>0.14893400000000001</v>
       </c>
       <c r="C3">
-        <f>_xlfn.STDEV.S('模型控制&amp;正常控制'!C26,'模型控制&amp;正常控制'!C49)</f>
+        <f>_xlfn.STDEV.S(TgCvWtC!C26,TgCvWtC!C49)</f>
         <v>1.8372048388788881E-2</v>
       </c>
-      <c r="F3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3">
-        <f>AVERAGE('模型给药&amp;控制'!C29:C49)</f>
-        <v>-1.695623809523809E-2</v>
-      </c>
-      <c r="H3">
-        <f>_xlfn.STDEV.S('模型给药&amp;控制'!C26:C49)</f>
-        <v>5.9914613265236269E-2</v>
-      </c>
       <c r="K3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3">
-        <f>AVERAGE('模型给药&amp;正常控制'!C26:C49)</f>
-        <v>0.10745254166666668</v>
-      </c>
-      <c r="M3">
-        <f>_xlfn.STDEV.S('模型给药&amp;正常控制'!C26:C49)</f>
-        <v>6.8925549038502815E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>158</v>
       </c>
       <c r="B4">
-        <f>AVERAGE('模型控制&amp;正常控制'!C50,'模型控制&amp;正常控制'!C75)</f>
+        <f>AVERAGE(TgCvWtC!C50,TgCvWtC!C75)</f>
         <v>0.14841650000000001</v>
       </c>
       <c r="C4">
-        <f>_xlfn.STDEV.S('模型控制&amp;正常控制'!C50:C75)</f>
+        <f>_xlfn.STDEV.S(TgCvWtC!C50:C75)</f>
         <v>4.1550537115254561E-2</v>
       </c>
-      <c r="F4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4">
-        <f>AVERAGE('模型给药&amp;控制'!C50:C75)</f>
-        <v>4.0869230769230774E-3</v>
-      </c>
-      <c r="H4">
-        <f>_xlfn.STDEV.S('模型给药&amp;控制'!C50:C75)</f>
-        <v>9.0502210393303903E-2</v>
-      </c>
       <c r="K4" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4">
-        <f>AVERAGE('模型给药&amp;正常控制'!C50:C75)</f>
-        <v>3.727296153846154E-2</v>
-      </c>
-      <c r="M4">
-        <f>_xlfn.STDEV.S('模型给药&amp;正常控制'!C50:C75)</f>
-        <v>4.3765093988228351E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>159</v>
       </c>
       <c r="B5">
-        <f>AVERAGE('模型控制&amp;正常控制'!C76,'模型控制&amp;正常控制'!C101)</f>
+        <f>AVERAGE(TgCvWtC!C76,TgCvWtC!C101)</f>
         <v>0.180842</v>
       </c>
       <c r="C5">
-        <f>_xlfn.STDEV.S('模型控制&amp;正常控制'!C76:C101)</f>
+        <f>_xlfn.STDEV.S(TgCvWtC!C76:C101)</f>
         <v>4.9082893562766433E-2</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(TgLvC!C2:C25)</f>
+        <v>5.169454166666667E-2</v>
+      </c>
+      <c r="C20">
+        <f>_xlfn.STDEV.S(TgLvC!C2:C25)</f>
+        <v>5.3995861152965806E-2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE(TgLvC!C26:C49)</f>
+        <v>-2.0004874999999995E-2</v>
+      </c>
+      <c r="C21">
+        <f>_xlfn.STDEV.S(TgLvC!C26:C49)</f>
+        <v>5.9914613265236269E-2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(TgLvC!C50:C75)</f>
+        <v>4.0869230769230774E-3</v>
+      </c>
+      <c r="C22">
+        <f>_xlfn.STDEV.S(TgLvC!C50:C75)</f>
+        <v>9.0502210393303903E-2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
         <v>159</v>
       </c>
-      <c r="G5">
-        <f>AVERAGE('模型给药&amp;控制'!C76:C101)</f>
+      <c r="B23">
+        <f>AVERAGE(TgLvC!C76:C101)</f>
         <v>1.3154961538461539E-2</v>
       </c>
-      <c r="H5">
-        <f>_xlfn.STDEV.S('模型给药&amp;控制'!C76:C101)</f>
+      <c r="C23">
+        <f>_xlfn.STDEV.S(TgLvC!C76:C101)</f>
         <v>5.4660889641849598E-2</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="K24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(TgLvC!D2:D25)</f>
+        <v>3.7843916666666665E-2</v>
+      </c>
+      <c r="C38">
+        <f>_xlfn.STDEV.S(TgLvC!D2:D25)</f>
+        <v>4.0930312993329089E-2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39">
+        <f>AVERAGE(TgLvC!D26:D49)</f>
+        <v>9.4012374999999995E-2</v>
+      </c>
+      <c r="C39">
+        <f>_xlfn.STDEV.S(TgLvC!D26:D49)</f>
+        <v>5.5172933682324066E-2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>174</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40">
+        <f>AVERAGE(TgLvC!D50:D75)</f>
+        <v>5.0811999999999996E-2</v>
+      </c>
+      <c r="C40">
+        <f>_xlfn.STDEV.S(TgLvC!D50:D75)</f>
+        <v>5.6908679976959586E-2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>175</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
         <v>159</v>
       </c>
-      <c r="L5">
-        <f>AVERAGE('模型给药&amp;正常控制'!C76:C101)</f>
+      <c r="B41">
+        <f>AVERAGE(TgLvC!D76:D101)</f>
+        <v>3.6872615384615386E-2</v>
+      </c>
+      <c r="C41">
+        <f>_xlfn.STDEV.S(TgLvC!D76:D101)</f>
+        <v>5.5450986708679526E-2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="K42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="K43" t="s">
+        <v>178</v>
+      </c>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="K44" t="s">
+        <v>179</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="K45" t="s">
+        <v>180</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56">
+        <f>AVERAGE(TgLvWtC!C2:C25)</f>
+        <v>7.2528541666666682E-2</v>
+      </c>
+      <c r="C56">
+        <f>_xlfn.STDEV.S(TgLvWtC!C2:C25)</f>
+        <v>6.4427483567036772E-2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>181</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE(TgLvWtC!C26:C49)</f>
+        <v>0.10745254166666668</v>
+      </c>
+      <c r="C57">
+        <f>_xlfn.STDEV.S(TgLvWtC!C26:C49)</f>
+        <v>6.8925549038502815E-2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>182</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58">
+        <f>AVERAGE(TgLvWtC!C50:C75)</f>
+        <v>3.727296153846154E-2</v>
+      </c>
+      <c r="C58">
+        <f>_xlfn.STDEV.S(TgLvWtC!C50:C75)</f>
+        <v>4.3765093988228351E-2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>183</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59">
+        <f>AVERAGE(TgLvWtC!C76:C101)</f>
         <v>7.2496961538461538E-2</v>
       </c>
-      <c r="M5">
-        <f>_xlfn.STDEV.S('模型给药&amp;正常控制'!C76:C101)</f>
+      <c r="C59">
+        <f>_xlfn.STDEV.S(TgLvWtC!C76:C101)</f>
         <v>6.9625705645820671E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="F8" t="s">
+      <c r="K59" t="s">
+        <v>184</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="K60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="K61" t="s">
+        <v>186</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="K62" t="s">
+        <v>187</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
         <v>161</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B72" t="s">
         <v>154</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C72" t="s">
         <v>155</v>
       </c>
-      <c r="K8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="F9" t="s">
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
         <v>156</v>
       </c>
-      <c r="G9">
-        <f>AVERAGE('模型给药&amp;控制'!D2:D25)</f>
-        <v>3.7843916666666665E-2</v>
-      </c>
-      <c r="H9">
-        <f>_xlfn.STDEV.S('模型给药&amp;控制'!D2:D25)</f>
-        <v>4.0930312993329089E-2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9">
-        <f>AVERAGE('模型给药&amp;正常控制'!D2:D25)</f>
+      <c r="B73">
+        <f>AVERAGE(TgLvWtC!D2:D25)</f>
         <v>2.3694791666666673E-2</v>
       </c>
-      <c r="M9">
-        <f>_xlfn.STDEV.S('模型给药&amp;正常控制'!D2:D25)</f>
+      <c r="C73">
+        <f>_xlfn.STDEV.S(TgLvWtC!D2:D25)</f>
         <v>6.0567066024208208E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="F10" t="s">
+      <c r="K73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
         <v>157</v>
       </c>
-      <c r="G10">
-        <f>AVERAGE('模型给药&amp;控制'!D26:D49)</f>
-        <v>9.4012374999999995E-2</v>
-      </c>
-      <c r="H10">
-        <f>_xlfn.STDEV.S('模型给药&amp;控制'!D26:D49)</f>
-        <v>5.5172933682324066E-2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10">
-        <f>AVERAGE('模型给药&amp;正常控制'!D26:D49)</f>
+      <c r="B74">
+        <f>AVERAGE(TgLvWtC!D26:D49)</f>
         <v>7.3287999999999978E-2</v>
       </c>
-      <c r="M10">
-        <f>_xlfn.STDEV.S('模型给药&amp;正常控制'!D26:D49)</f>
+      <c r="C74">
+        <f>_xlfn.STDEV.S(TgLvWtC!D26:D49)</f>
         <v>6.1957928542014651E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="F11" t="s">
+      <c r="K74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
         <v>158</v>
       </c>
-      <c r="G11">
-        <f>AVERAGE('模型给药&amp;控制'!D50:D75)</f>
-        <v>5.0811999999999996E-2</v>
-      </c>
-      <c r="H11">
-        <f>_xlfn.STDEV.S('模型给药&amp;控制'!D50:D75)</f>
-        <v>5.6908679976959586E-2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11">
-        <f>AVERAGE('模型给药&amp;正常控制'!D50:D75)</f>
+      <c r="B75">
+        <f>AVERAGE(TgLvWtC!D50:D75)</f>
         <v>1.408426923076923E-2</v>
       </c>
-      <c r="M11">
-        <f>_xlfn.STDEV.S('模型给药&amp;正常控制'!D50:D75)</f>
+      <c r="C75">
+        <f>_xlfn.STDEV.S(TgLvWtC!D50:D75)</f>
         <v>5.8119416016720396E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="F12" t="s">
+      <c r="K75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
         <v>159</v>
       </c>
-      <c r="G12">
-        <f>AVERAGE('模型给药&amp;控制'!D76:D101)</f>
-        <v>3.6872615384615386E-2</v>
-      </c>
-      <c r="H12">
-        <f>_xlfn.STDEV.S('模型给药&amp;控制'!D76:D101)</f>
-        <v>5.5450986708679526E-2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>159</v>
-      </c>
-      <c r="L12">
-        <f>AVERAGE('模型给药&amp;正常控制'!D76:D101)</f>
+      <c r="B76">
+        <f>AVERAGE(TgLvWtC!D76:D101)</f>
         <v>2.5385769230769212E-3</v>
       </c>
-      <c r="M12">
-        <f>_xlfn.STDEV.S('模型给药&amp;正常控制'!D76:D101)</f>
+      <c r="C76">
+        <f>_xlfn.STDEV.S(TgLvWtC!D76:D101)</f>
         <v>6.1665873190394759E-2</v>
       </c>
+      <c r="K76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="K77" t="s">
+        <v>189</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="K78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="K79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="K80" t="s">
+        <v>191</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="11:13">
+      <c r="K81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="11:13">
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="88" spans="11:13">
+      <c r="L88" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="10755" windowHeight="4455"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="10755" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TgCvWtC" sheetId="1" r:id="rId1"/>
@@ -933,11 +933,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="84919424"/>
-        <c:axId val="84920960"/>
+        <c:axId val="88447232"/>
+        <c:axId val="97632640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84919424"/>
+        <c:axId val="88447232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84920960"/>
+        <c:crossAx val="97632640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84920960"/>
+        <c:axId val="97632640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84919424"/>
+        <c:crossAx val="88447232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1133,11 +1133,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="40877056"/>
-        <c:axId val="40882944"/>
+        <c:axId val="94811264"/>
+        <c:axId val="94812800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40877056"/>
+        <c:axId val="94811264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1146,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40882944"/>
+        <c:crossAx val="94812800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1154,7 +1154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40882944"/>
+        <c:axId val="94812800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40877056"/>
+        <c:crossAx val="94811264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1333,11 +1333,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="40177024"/>
-        <c:axId val="40211584"/>
+        <c:axId val="100558720"/>
+        <c:axId val="100560256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40177024"/>
+        <c:axId val="100558720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1346,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40211584"/>
+        <c:crossAx val="100560256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1354,7 +1354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40211584"/>
+        <c:axId val="100560256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40177024"/>
+        <c:crossAx val="100558720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,11 +1534,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="40233216"/>
-        <c:axId val="40239104"/>
+        <c:axId val="88256896"/>
+        <c:axId val="88258432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40233216"/>
+        <c:axId val="88256896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1547,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40239104"/>
+        <c:crossAx val="88258432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40239104"/>
+        <c:axId val="88258432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,7 +1567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40233216"/>
+        <c:crossAx val="88256896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1735,11 +1735,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="40313984"/>
-        <c:axId val="40315520"/>
+        <c:axId val="88427520"/>
+        <c:axId val="88433408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40313984"/>
+        <c:axId val="88427520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1748,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40315520"/>
+        <c:crossAx val="88433408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1756,7 +1756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40315520"/>
+        <c:axId val="88433408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40313984"/>
+        <c:crossAx val="88427520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1936,11 +1936,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="40336768"/>
-        <c:axId val="40359040"/>
+        <c:axId val="88462848"/>
+        <c:axId val="88464384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40336768"/>
+        <c:axId val="88462848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1949,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40359040"/>
+        <c:crossAx val="88464384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1957,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40359040"/>
+        <c:axId val="88464384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +1969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40336768"/>
+        <c:crossAx val="88462848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2137,11 +2137,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="40408960"/>
-        <c:axId val="40410496"/>
+        <c:axId val="89313280"/>
+        <c:axId val="89314816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40408960"/>
+        <c:axId val="89313280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2150,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40410496"/>
+        <c:crossAx val="89314816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2158,7 +2158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40410496"/>
+        <c:axId val="89314816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40408960"/>
+        <c:crossAx val="89313280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2336,11 +2336,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="40706048"/>
-        <c:axId val="40707584"/>
+        <c:axId val="94721920"/>
+        <c:axId val="94723456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40706048"/>
+        <c:axId val="94721920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2349,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40707584"/>
+        <c:crossAx val="94723456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2357,7 +2357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40707584"/>
+        <c:axId val="94723456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,7 +2369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40706048"/>
+        <c:crossAx val="94721920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2536,11 +2536,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="40724736"/>
-        <c:axId val="40738816"/>
+        <c:axId val="94757248"/>
+        <c:axId val="94758784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40724736"/>
+        <c:axId val="94757248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2549,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40738816"/>
+        <c:crossAx val="94758784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2557,7 +2557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40738816"/>
+        <c:axId val="94758784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,14 +2569,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40724736"/>
+        <c:crossAx val="94757248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2737,11 +2736,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="40846080"/>
-        <c:axId val="40847616"/>
+        <c:axId val="94784128"/>
+        <c:axId val="94790016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40846080"/>
+        <c:axId val="94784128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2749,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40847616"/>
+        <c:crossAx val="94790016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40847616"/>
+        <c:axId val="94790016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,14 +2769,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40846080"/>
+        <c:crossAx val="94784128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4982,7 +4980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6116,8 +6114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7554,8 +7552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="10755" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="10755" windowHeight="4455" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TgCvWtC" sheetId="1" r:id="rId1"/>
-    <sheet name="TgLvC" sheetId="2" r:id="rId2"/>
-    <sheet name="TgLvWtC" sheetId="3" r:id="rId3"/>
+    <sheet name="CA1" sheetId="1" r:id="rId1"/>
+    <sheet name="CA3" sheetId="3" r:id="rId2"/>
+    <sheet name="GM" sheetId="2" r:id="rId3"/>
     <sheet name="analysis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="402">
   <si>
     <t>File</t>
   </si>
@@ -513,18 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TgLvC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgCvWtC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgLvWtC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cc/ec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,129 +545,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>V1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc/ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1ULp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2ML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc/ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corpus callosum / External capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subiculum transition area </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Presubiculum PrS </t>
+  </si>
+  <si>
+    <t>Corpus callosum / External capsule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temporal association area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ectorhinal cortex</t>
+  </si>
+  <si>
+    <t>Secondary auditory cortex, ventral area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary somatosensory cortex </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subiculum transition area </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A29b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2MM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc/ec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc/ec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1BF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1ULp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2MM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2ML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc/ec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Corpus callosum / External capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subiculum transition area </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Presubiculum PrS </t>
-  </si>
-  <si>
-    <t>Cingulate cortex, area 29b</t>
-  </si>
-  <si>
-    <t>Cingulate cortex, area 30</t>
-  </si>
-  <si>
-    <t>Corpus callosum / External capsule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temporal association area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ectorhinal cortex</t>
-  </si>
-  <si>
-    <t>Secondary auditory cortex, ventral area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary somatosensory cortex </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subiculum transition area </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A29b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Caudomedial entorhinal cortex </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,19 +654,619 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Postsubiculum </t>
+    <t xml:space="preserve">Secondary somatosensory cortex </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dorsal subiculum</t>
+    <t>./TgCON/CA1_1068_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_1068_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_1070_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_1070_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_1071_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_1071_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_1079_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_1079_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_1139_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_1139_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_888_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_888_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_952_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_952_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_955_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_955_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_960_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_960_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_961_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_961_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_963_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_963_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_984_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/CA1_984_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1032_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1032_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1050_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1050_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1052_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1052_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1053_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1053_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1054_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1054_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1055_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1055_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1072_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1072_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1209_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_1209_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_830_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_830_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_932_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_932_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_965_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_965_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_966_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/CA1_966_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_886_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_886_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_890_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_890_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_896_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_896_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_902_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_902_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_910_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_910_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_944_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_944_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_945_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_945_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_946_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_946_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_947_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_947_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_948_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_948_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_950_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_950_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_976_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_976_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_978_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/CA1_978_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_851_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_851_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_854_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_854_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_895_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_895_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_901_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_901_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_903_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_903_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_940_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_940_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_942_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_942_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_949_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_949_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_969_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_969_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_972_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_972_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_979_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_979_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_986_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_986_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_989_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/CA1_989_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1068_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1068_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1070_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1070_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1071_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1071_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1079_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1079_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1139_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_1139_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_888_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_888_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_952_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_952_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_955_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_955_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_960_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_960_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_961_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_961_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_963_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_963_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_984_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgCON/GM_984_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1032_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1032_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1050_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1050_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1052_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1052_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1053_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1053_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1054_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1054_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1055_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1055_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1072_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1072_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1209_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_1209_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_830_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_830_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_932_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_932_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_965_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_965_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_966_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./TgLNBP/GM_966_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_886_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_886_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_890_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_890_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_896_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_896_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_902_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_902_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_910_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_910_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_944_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_944_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_945_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_945_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_946_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_946_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_947_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_947_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_948_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_948_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_950_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_950_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_976_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_976_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_978_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtCON/GM_978_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_851_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_851_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_854_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_854_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_895_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_895_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_901_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_901_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_903_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_903_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_940_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_940_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_942_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_942_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_949_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_949_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_969_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_969_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_972_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_972_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_979_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_979_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_986_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_986_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_989_BOLD1_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>./WtLNBP/GM_989_BOLD2_z+orig.HEAD</t>
+  </si>
+  <si>
+    <t>GM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Corpus callosum / External capsule</t>
+    <t>CA1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Secondary somatosensory cortex </t>
+    <t>CA3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +1274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +1303,19 @@
       <name val="Gulliver"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -764,7 +1339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +1347,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,16 +1432,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.13324200000000003</c:v>
+                  <c:v>-1.9593916666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14893400000000001</c:v>
+                  <c:v>5.5462999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14841650000000001</c:v>
+                  <c:v>-3.6489999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.180842</c:v>
+                  <c:v>-4.7426999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,16 +1489,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.4146296767826996E-2</c:v>
+                  <c:v>7.9192232141529956E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8372048388788881E-2</c:v>
+                  <c:v>9.4999796052412669E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1550537115254561E-2</c:v>
+                  <c:v>6.0653011182678747E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9082893562766433E-2</c:v>
+                  <c:v>9.411619767906379E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,11 +1514,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="88447232"/>
-        <c:axId val="97632640"/>
+        <c:axId val="154956928"/>
+        <c:axId val="154958464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88447232"/>
+        <c:axId val="154956928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +1527,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97632640"/>
+        <c:crossAx val="154958464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +1535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97632640"/>
+        <c:axId val="154958464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +1547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88447232"/>
+        <c:crossAx val="154956928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -988,7 +1569,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1014,7 +1595,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$B$72</c:f>
+              <c:f>analysis!$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1026,7 +1607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$73:$A$76</c:f>
+              <c:f>analysis!$A$56:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1046,21 +1627,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$B$73:$B$76</c:f>
+              <c:f>analysis!$B$56:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3694791666666673E-2</c:v>
+                  <c:v>2.7682458333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3287999999999978E-2</c:v>
+                  <c:v>-3.4031416666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.408426923076923E-2</c:v>
+                  <c:v>7.9489192307692288E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5385769230769212E-3</c:v>
+                  <c:v>3.3513999999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,7 +1652,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$C$72</c:f>
+              <c:f>analysis!$C$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1083,7 +1664,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$73:$A$76</c:f>
+              <c:f>analysis!$A$56:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1103,21 +1684,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$C$73:$C$76</c:f>
+              <c:f>analysis!$C$56:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.0567066024208208E-2</c:v>
+                  <c:v>6.2480922302925991E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1957928542014651E-2</c:v>
+                  <c:v>8.1431920518823933E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8119416016720396E-2</c:v>
+                  <c:v>7.0737289715125079E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1665873190394759E-2</c:v>
+                  <c:v>6.4959903919879686E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,11 +1714,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="94811264"/>
-        <c:axId val="94812800"/>
+        <c:axId val="157624960"/>
+        <c:axId val="157630848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94811264"/>
+        <c:axId val="157624960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1727,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94812800"/>
+        <c:crossAx val="157630848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1154,7 +1735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94812800"/>
+        <c:axId val="157630848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,207 +1747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94811264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$20:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$20:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.169454166666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.0004874999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0869230769230774E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3154961538461539E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$20:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$C$20:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.3995861152965806E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9914613265236269E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0502210393303903E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4660889641849598E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="100558720"/>
-        <c:axId val="100560256"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="100558720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100560256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100560256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100558720"/>
+        <c:crossAx val="157624960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1415,7 +1796,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$B$37</c:f>
+              <c:f>analysis!$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1427,7 +1808,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$38:$A$41</c:f>
+              <c:f>analysis!$A$73:$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1447,21 +1828,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$B$38:$B$41</c:f>
+              <c:f>analysis!$B$73:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.7843916666666665E-2</c:v>
+                  <c:v>2.0451041666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4012374999999995E-2</c:v>
+                  <c:v>-4.0431208333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0811999999999996E-2</c:v>
+                  <c:v>6.4313769230769244E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6872615384615386E-2</c:v>
+                  <c:v>3.1378269230769223E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,7 +1853,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$C$37</c:f>
+              <c:f>analysis!$C$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1484,7 +1865,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$38:$A$41</c:f>
+              <c:f>analysis!$A$73:$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1504,21 +1885,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$C$38:$C$41</c:f>
+              <c:f>analysis!$C$73:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0930312993329089E-2</c:v>
+                  <c:v>7.8064150577797045E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5172933682324066E-2</c:v>
+                  <c:v>7.7154509424400664E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6908679976959586E-2</c:v>
+                  <c:v>5.4115981230174637E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5450986708679526E-2</c:v>
+                  <c:v>7.9408599371381783E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,11 +1915,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="88256896"/>
-        <c:axId val="88258432"/>
+        <c:axId val="157668864"/>
+        <c:axId val="157670400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88256896"/>
+        <c:axId val="157668864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1928,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88258432"/>
+        <c:crossAx val="157670400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88258432"/>
+        <c:axId val="157670400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,7 +1948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88256896"/>
+        <c:crossAx val="157668864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1604,7 +1985,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1616,7 +1997,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$B$55</c:f>
+              <c:f>analysis!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1628,7 +2009,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$56:$A$59</c:f>
+              <c:f>analysis!$A$20:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1648,21 +2029,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$B$56:$B$59</c:f>
+              <c:f>analysis!$B$20:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.2528541666666682E-2</c:v>
+                  <c:v>2.6118458333333327E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10745254166666668</c:v>
+                  <c:v>-2.3765041666666653E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.727296153846154E-2</c:v>
+                  <c:v>7.1794461538461529E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2496961538461538E-2</c:v>
+                  <c:v>3.3671076923076929E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,7 +2054,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$C$55</c:f>
+              <c:f>analysis!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1685,7 +2066,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$56:$A$59</c:f>
+              <c:f>analysis!$A$20:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1705,21 +2086,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$C$56:$C$59</c:f>
+              <c:f>analysis!$C$20:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.4427483567036772E-2</c:v>
+                  <c:v>7.0175692097068323E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8925549038502815E-2</c:v>
+                  <c:v>6.6372803511993275E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3765093988228351E-2</c:v>
+                  <c:v>6.8614906478537602E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9625705645820671E-2</c:v>
+                  <c:v>6.8265828395719666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,11 +2116,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="88427520"/>
-        <c:axId val="88433408"/>
+        <c:axId val="156372352"/>
+        <c:axId val="156394624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88427520"/>
+        <c:axId val="156372352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +2129,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88433408"/>
+        <c:crossAx val="156394624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1756,7 +2137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88433408"/>
+        <c:axId val="156394624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +2149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88427520"/>
+        <c:crossAx val="156372352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,7 +2198,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$B$72</c:f>
+              <c:f>analysis!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1829,7 +2210,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$73:$A$76</c:f>
+              <c:f>analysis!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1849,21 +2230,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$B$73:$B$76</c:f>
+              <c:f>analysis!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3694791666666673E-2</c:v>
+                  <c:v>-1.9593916666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3287999999999978E-2</c:v>
+                  <c:v>5.5462999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.408426923076923E-2</c:v>
+                  <c:v>-3.6489999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5385769230769212E-3</c:v>
+                  <c:v>-4.7426999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1874,7 +2255,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$C$72</c:f>
+              <c:f>analysis!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1886,7 +2267,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$73:$A$76</c:f>
+              <c:f>analysis!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1906,21 +2287,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$C$73:$C$76</c:f>
+              <c:f>analysis!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.0567066024208208E-2</c:v>
+                  <c:v>7.9192232141529956E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1957928542014651E-2</c:v>
+                  <c:v>9.4999796052412669E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8119416016720396E-2</c:v>
+                  <c:v>6.0653011182678747E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1665873190394759E-2</c:v>
+                  <c:v>9.411619767906379E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,11 +2317,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="88462848"/>
-        <c:axId val="88464384"/>
+        <c:axId val="157720576"/>
+        <c:axId val="157722112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88462848"/>
+        <c:axId val="157720576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +2330,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88464384"/>
+        <c:crossAx val="157722112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1957,7 +2338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88464384"/>
+        <c:axId val="157722112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +2350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88462848"/>
+        <c:crossAx val="157720576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1988,210 +2369,10 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.13324200000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14893400000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14841650000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.180842</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.4146296767826996E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8372048388788881E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1550537115254561E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9082893562766433E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="89313280"/>
-        <c:axId val="89314816"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="89313280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89314816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="89314816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89313280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2254,16 +2435,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.169454166666667E-2</c:v>
+                  <c:v>2.6118458333333327E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.0004874999999995E-2</c:v>
+                  <c:v>-2.3765041666666653E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0869230769230774E-3</c:v>
+                  <c:v>7.1794461538461529E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3154961538461539E-2</c:v>
+                  <c:v>3.3671076923076929E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2311,16 +2492,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.3995861152965806E-2</c:v>
+                  <c:v>7.0175692097068323E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9914613265236269E-2</c:v>
+                  <c:v>6.6372803511993275E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0502210393303903E-2</c:v>
+                  <c:v>6.8614906478537602E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4660889641849598E-2</c:v>
+                  <c:v>6.8265828395719666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,11 +2517,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="94721920"/>
-        <c:axId val="94723456"/>
+        <c:axId val="157738880"/>
+        <c:axId val="157740416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94721920"/>
+        <c:axId val="157738880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2530,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94723456"/>
+        <c:crossAx val="157740416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2357,7 +2538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94723456"/>
+        <c:axId val="157740416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,13 +2550,215 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94721920"/>
+        <c:crossAx val="157738880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$56:$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$56:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7682458333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4031416666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9489192307692288E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3513999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>方差</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$56:$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TgCON</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TgLNBP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WtCON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WtLNBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$C$56:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.2480922302925991E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1431920518823933E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0737289715125079E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4959903919879686E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="163652352"/>
+        <c:axId val="163653888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="163652352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163653888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163653888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163652352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2417,7 +2800,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$B$37</c:f>
+              <c:f>analysis!$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2429,7 +2812,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$38:$A$41</c:f>
+              <c:f>analysis!$A$73:$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2449,21 +2832,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$B$38:$B$41</c:f>
+              <c:f>analysis!$B$73:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.7843916666666665E-2</c:v>
+                  <c:v>2.0451041666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4012374999999995E-2</c:v>
+                  <c:v>-4.0431208333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0811999999999996E-2</c:v>
+                  <c:v>6.4313769230769244E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6872615384615386E-2</c:v>
+                  <c:v>3.1378269230769223E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2474,7 +2857,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>analysis!$C$37</c:f>
+              <c:f>analysis!$C$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2486,7 +2869,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$38:$A$41</c:f>
+              <c:f>analysis!$A$73:$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2506,21 +2889,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$C$38:$C$41</c:f>
+              <c:f>analysis!$C$73:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0930312993329089E-2</c:v>
+                  <c:v>7.8064150577797045E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5172933682324066E-2</c:v>
+                  <c:v>7.7154509424400664E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6908679976959586E-2</c:v>
+                  <c:v>5.4115981230174637E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5450986708679526E-2</c:v>
+                  <c:v>7.9408599371381783E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2536,11 +2919,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="94757248"/>
-        <c:axId val="94758784"/>
+        <c:axId val="163675136"/>
+        <c:axId val="163689216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94757248"/>
+        <c:axId val="163675136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2932,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94758784"/>
+        <c:crossAx val="163689216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2557,7 +2940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94758784"/>
+        <c:axId val="163689216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,213 +2952,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94757248"/>
+        <c:crossAx val="163675136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$56:$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$56:$B$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.2528541666666682E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10745254166666668</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.727296153846154E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2496961538461538E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$56:$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$C$56:$C$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.4427483567036772E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8925549038502815E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3765093988228351E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9625705645820671E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="94784128"/>
-        <c:axId val="94790016"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="94784128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94790016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="94790016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94784128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2829,428 +3013,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76341</cdr:x>
-      <cdr:y>0.82939</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3490294" y="2275187"/>
-          <a:ext cx="1081707" cy="468013"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="17780" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="000000">
-                      <a:tint val="92000"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="49000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="89000"/>
-                      <a:shade val="90000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="100000"/>
-                      <a:shade val="75000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="95000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="47000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="39000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Mean2</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="17780" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="000000">
-                    <a:tint val="92000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="49000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="89000"/>
-                    <a:shade val="90000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="100000"/>
-                    <a:shade val="75000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="95000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="47000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="39000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76341</cdr:x>
-      <cdr:y>0.82939</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3490293" y="2275187"/>
-          <a:ext cx="1081707" cy="468013"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="17780" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="000000">
-                      <a:tint val="92000"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="49000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="89000"/>
-                      <a:shade val="90000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="100000"/>
-                      <a:shade val="75000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="95000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="47000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="39000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Mean1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="17780" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="000000">
-                    <a:tint val="92000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="49000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="89000"/>
-                    <a:shade val="90000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="100000"/>
-                    <a:shade val="75000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="95000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="47000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="39000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3466,433 +3228,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76341</cdr:x>
-      <cdr:y>0.82939</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3490294" y="2275187"/>
-          <a:ext cx="1081706" cy="468013"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="17780" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="000000">
-                      <a:tint val="92000"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="49000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="89000"/>
-                      <a:shade val="90000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="100000"/>
-                      <a:shade val="75000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="95000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="47000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="39000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Mean1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="17780" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="000000">
-                    <a:tint val="92000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="49000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="89000"/>
-                    <a:shade val="90000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="100000"/>
-                    <a:shade val="75000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="95000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="47000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="39000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76341</cdr:x>
-      <cdr:y>0.82939</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3490294" y="2275187"/>
-          <a:ext cx="1081707" cy="468013"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="17780" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="000000">
-                      <a:tint val="92000"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="49000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="89000"/>
-                      <a:shade val="90000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="100000"/>
-                      <a:shade val="75000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="95000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="47000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="39000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Mean2</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="17780" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="000000">
-                    <a:tint val="92000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="49000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="89000"/>
-                    <a:shade val="90000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="100000"/>
-                    <a:shade val="75000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="95000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="47000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="39000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -3957,7 +3292,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4168,7 +3503,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4379,7 +3714,191 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76341</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3490294" y="2275187"/>
+          <a:ext cx="1081706" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4449,38 +3968,6 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>439615</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>46892</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="图表 9"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>168519</xdr:rowOff>
     </xdr:from>
@@ -4503,7 +3990,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4535,7 +4022,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4544,7 +4031,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4575,6 +4062,217 @@
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
+              <a:ln w="17780" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="000000">
+                      <a:tint val="92000"/>
+                      <a:shade val="100000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="49000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="89000"/>
+                      <a:shade val="90000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="000000">
+                      <a:tint val="100000"/>
+                      <a:shade val="75000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="95000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="47000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="000000">
+                      <a:shade val="39000"/>
+                      <a:satMod val="150000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Mean1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76341</cdr:x>
+      <cdr:y>0.82939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3490293" y="2275187"/>
+          <a:ext cx="1081707" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
@@ -4981,7 +4679,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5004,1102 +4702,1102 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.14343600000000001</v>
+        <v>2.6835999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.10571</v>
+        <v>-4.9563999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>8.8834999999999997E-2</v>
+        <v>8.8135000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.105767</v>
+        <v>-1.6732E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.17324899999999999</v>
+        <v>-5.2789999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.120453</v>
+        <v>-6.0248000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.127697</v>
+        <v>1.1967999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.146678</v>
+        <v>2.6724999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.16753999999999999</v>
+        <v>-0.15903900000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.229572</v>
+        <v>-0.13778099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.11977400000000001</v>
+        <v>-0.15098600000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.118242</v>
+        <v>-0.18779899999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14">
-        <v>0.168741</v>
+        <v>-6.0491000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15">
-        <v>0.100079</v>
+        <v>-2.0045E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>9.8352999999999996E-2</v>
+        <v>3.7218000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17">
-        <v>0.136016</v>
+        <v>-5.6723000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="C18">
-        <v>0.15579899999999999</v>
+        <v>2.9832000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19">
-        <v>0.109194</v>
+        <v>3.2335999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20">
-        <v>0.15135199999999999</v>
+        <v>3.8010000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
       <c r="C21">
-        <v>0.18137</v>
+        <v>-6.9369999999999996E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22">
-        <v>0.111403</v>
+        <v>7.7646000000000007E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23">
-        <v>0.13777500000000001</v>
+        <v>4.4325999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24">
-        <v>0.114846</v>
+        <v>0.10739899999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25">
-        <v>8.5927000000000003E-2</v>
+        <v>-3.1550000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26">
-        <v>0.13594300000000001</v>
+        <v>0.122638</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27">
-        <v>0.187779</v>
+        <v>7.1329000000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28">
-        <v>0.146037</v>
+        <v>-4.8617E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
       </c>
       <c r="C29">
-        <v>0.20389099999999999</v>
+        <v>-4.7052999999999998E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30">
-        <v>0.37705899999999998</v>
+        <v>-0.122333</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="C31">
-        <v>0.178477</v>
+        <v>-9.1678999999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
       </c>
       <c r="C32">
-        <v>0.12538099999999999</v>
+        <v>-5.8647999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
       </c>
       <c r="C33">
-        <v>0.100284</v>
+        <v>-0.14688699999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
       <c r="C34">
-        <v>0.124122</v>
+        <v>-3.2577000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35">
-        <v>0.175839</v>
+        <v>-5.5787999999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
       </c>
       <c r="C36">
-        <v>0.166129</v>
+        <v>-0.147951</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37">
-        <v>0.10840900000000001</v>
+        <v>-0.11772199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
       <c r="C38">
-        <v>0.143845</v>
+        <v>3.6099999999999999E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39">
-        <v>0.125778</v>
+        <v>-2.6255000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s">
         <v>61</v>
       </c>
       <c r="C40">
-        <v>0.17951400000000001</v>
+        <v>-2.3376000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
       </c>
       <c r="C41">
-        <v>0.15482799999999999</v>
+        <v>9.2837000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="B42" t="s">
         <v>64</v>
       </c>
       <c r="C42">
-        <v>0.18315500000000001</v>
+        <v>-7.3990000000000002E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
         <v>64</v>
       </c>
       <c r="C43">
-        <v>0.108946</v>
+        <v>9.7970000000000002E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
       </c>
       <c r="C44">
-        <v>0.15109300000000001</v>
+        <v>-9.8055000000000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
       </c>
       <c r="C45">
-        <v>0.14214199999999999</v>
+        <v>-0.227102</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
       </c>
       <c r="C46">
-        <v>0.14280899999999999</v>
+        <v>-1.678E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
       </c>
       <c r="C47">
-        <v>0.13195499999999999</v>
+        <v>-4.627E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="C48">
-        <v>0.14643</v>
+        <v>-4.7530000000000003E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
       </c>
       <c r="C49">
-        <v>0.16192500000000001</v>
+        <v>-1.1712E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
         <v>76</v>
       </c>
       <c r="C50">
-        <v>0.133575</v>
+        <v>-8.3079999999999994E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="B51" t="s">
         <v>76</v>
       </c>
       <c r="C51">
-        <v>0.19053100000000001</v>
+        <v>0.18646399999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
         <v>79</v>
       </c>
       <c r="C52">
-        <v>0.21618699999999999</v>
+        <v>5.9013999999999997E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="B53" t="s">
         <v>79</v>
       </c>
       <c r="C53">
-        <v>0.31163000000000002</v>
+        <v>3.1274999999999997E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
         <v>82</v>
       </c>
       <c r="C54">
-        <v>0.14898500000000001</v>
+        <v>3.261E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
         <v>82</v>
       </c>
       <c r="C55">
-        <v>0.138179</v>
+        <v>5.7962E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
         <v>85</v>
       </c>
       <c r="C56">
-        <v>0.182475</v>
+        <v>0.126137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="B57" t="s">
         <v>85</v>
       </c>
       <c r="C57">
-        <v>0.20259099999999999</v>
+        <v>0.12624099999999999</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
         <v>88</v>
       </c>
       <c r="C58">
-        <v>0.19301599999999999</v>
+        <v>-9.2108999999999996E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
         <v>88</v>
       </c>
       <c r="C59">
-        <v>0.19072700000000001</v>
+        <v>-5.1789000000000002E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c r="B60" t="s">
         <v>91</v>
       </c>
       <c r="C60">
-        <v>0.237953</v>
+        <v>2.9241E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="B61" t="s">
         <v>91</v>
       </c>
       <c r="C61">
-        <v>0.16331300000000001</v>
+        <v>2.3746E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s">
         <v>94</v>
       </c>
       <c r="C62">
-        <v>0.177651</v>
+        <v>0.116243</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
         <v>94</v>
       </c>
       <c r="C63">
-        <v>0.20286899999999999</v>
+        <v>0.10377</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
         <v>97</v>
       </c>
       <c r="C64">
-        <v>0.15438499999999999</v>
+        <v>4.4955000000000002E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="B65" t="s">
         <v>97</v>
       </c>
       <c r="C65">
-        <v>0.17451900000000001</v>
+        <v>3.9657999999999999E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s">
         <v>100</v>
       </c>
       <c r="C66">
-        <v>0.15623799999999999</v>
+        <v>-4.6102999999999998E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s">
         <v>100</v>
       </c>
       <c r="C67">
-        <v>9.3131000000000005E-2</v>
+        <v>7.0799999999999997E-4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
         <v>103</v>
       </c>
       <c r="C68">
-        <v>0.18143300000000001</v>
+        <v>9.9418999999999993E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s">
         <v>103</v>
       </c>
       <c r="C69">
-        <v>0.204235</v>
+        <v>3.9336000000000003E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
       <c r="C70">
-        <v>0.14979899999999999</v>
+        <v>2.8724E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s">
         <v>106</v>
       </c>
       <c r="C71">
-        <v>0.20305400000000001</v>
+        <v>6.5758999999999998E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
         <v>109</v>
       </c>
       <c r="C72">
-        <v>0.21602199999999999</v>
+        <v>5.1349999999999998E-3</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s">
         <v>109</v>
       </c>
       <c r="C73">
-        <v>0.14846400000000001</v>
+        <v>2.1239999999999998E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="B74" t="s">
         <v>112</v>
       </c>
       <c r="C74">
-        <v>0.14566000000000001</v>
+        <v>3.4537999999999999E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="B75" t="s">
         <v>112</v>
       </c>
       <c r="C75">
-        <v>0.16325799999999999</v>
+        <v>1.01E-3</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s">
         <v>115</v>
       </c>
       <c r="C76">
-        <v>0.19913700000000001</v>
+        <v>1.4074E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="B77" t="s">
         <v>115</v>
       </c>
       <c r="C77">
-        <v>0.121127</v>
+        <v>-5.463E-3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="B78" t="s">
         <v>118</v>
       </c>
       <c r="C78">
-        <v>0.104576</v>
+        <v>-4.1975999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="B79" t="s">
         <v>118</v>
       </c>
       <c r="C79">
-        <v>0.160494</v>
+        <v>9.8110000000000003E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="B80" t="s">
         <v>121</v>
       </c>
       <c r="C80">
-        <v>0.16996</v>
+        <v>0.11641</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="B81" t="s">
         <v>121</v>
       </c>
       <c r="C81">
-        <v>0.179003</v>
+        <v>7.0624999999999993E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="B82" t="s">
         <v>124</v>
       </c>
       <c r="C82">
-        <v>0.14624100000000001</v>
+        <v>7.6262999999999997E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="B83" t="s">
         <v>124</v>
       </c>
       <c r="C83">
-        <v>0.114782</v>
+        <v>0.216612</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="B84" t="s">
         <v>127</v>
       </c>
       <c r="C84">
-        <v>0.150197</v>
+        <v>-3.6614000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="B85" t="s">
         <v>127</v>
       </c>
       <c r="C85">
-        <v>0.106378</v>
+        <v>-3.9870999999999997E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="B86" t="s">
         <v>130</v>
       </c>
       <c r="C86">
-        <v>0.12461700000000001</v>
+        <v>-2.4152E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s">
         <v>130</v>
       </c>
       <c r="C87">
-        <v>0.153942</v>
+        <v>-1.0118E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="B88" t="s">
         <v>133</v>
       </c>
       <c r="C88">
-        <v>0.129025</v>
+        <v>1.0897E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="B89" t="s">
         <v>133</v>
       </c>
       <c r="C89">
-        <v>0.123706</v>
+        <v>2.5427999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="B90" t="s">
         <v>136</v>
       </c>
       <c r="C90">
-        <v>0.13843900000000001</v>
+        <v>1.0657E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="B91" t="s">
         <v>136</v>
       </c>
       <c r="C91">
-        <v>0.148482</v>
+        <v>8.1670000000000006E-3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
         <v>139</v>
       </c>
       <c r="C92">
-        <v>0.23304900000000001</v>
+        <v>0.22265699999999999</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
         <v>139</v>
       </c>
       <c r="C93">
-        <v>0.334567</v>
+        <v>0.261237</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
         <v>142</v>
       </c>
       <c r="C94">
-        <v>0.15145800000000001</v>
+        <v>3.7626E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="B95" t="s">
         <v>142</v>
       </c>
       <c r="C95">
-        <v>0.10390000000000001</v>
+        <v>4.0890000000000003E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="B96" t="s">
         <v>145</v>
       </c>
       <c r="C96">
-        <v>0.17158300000000001</v>
+        <v>9.7142999999999993E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="B97" t="s">
         <v>145</v>
       </c>
       <c r="C97">
-        <v>8.7737999999999997E-2</v>
+        <v>1.3780000000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="B98" t="s">
         <v>148</v>
       </c>
       <c r="C98">
-        <v>0.178977</v>
+        <v>-6.9999999999999994E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
         <v>148</v>
       </c>
       <c r="C99">
-        <v>0.13353000000000001</v>
+        <v>-2.3323E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
         <v>151</v>
       </c>
       <c r="C100">
-        <v>0.14826800000000001</v>
+        <v>-0.155971</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="B101" t="s">
         <v>151</v>
       </c>
       <c r="C101">
-        <v>0.162547</v>
+        <v>-0.108928</v>
       </c>
     </row>
   </sheetData>
@@ -6114,1446 +5812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>7.0252999999999996E-2</v>
-      </c>
-      <c r="D2">
-        <v>3.7834E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1.6611999999999998E-2</v>
-      </c>
-      <c r="D3">
-        <v>3.1572999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1.9827000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>2.7918999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>3.9514000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>-4.3290000000000004E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>9.2561000000000004E-2</v>
-      </c>
-      <c r="D6">
-        <v>5.9345000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>-3.0456E-2</v>
-      </c>
-      <c r="D7">
-        <v>2.7541E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>-4.4999999999999999E-4</v>
-      </c>
-      <c r="D8">
-        <v>1.7895000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>-2.2631999999999999E-2</v>
-      </c>
-      <c r="D9">
-        <v>6.9909999999999998E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0.129521</v>
-      </c>
-      <c r="D10">
-        <v>0.168015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>0.187559</v>
-      </c>
-      <c r="D11">
-        <v>5.5740999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>1.8970999999999998E-2</v>
-      </c>
-      <c r="D12">
-        <v>-6.1069999999999996E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>0.13068099999999999</v>
-      </c>
-      <c r="D13">
-        <v>3.9550000000000002E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>1.4997999999999999E-2</v>
-      </c>
-      <c r="D14">
-        <v>2.3529999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>1.6871000000000001E-2</v>
-      </c>
-      <c r="D15">
-        <v>4.3589000000000003E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>0.12567300000000001</v>
-      </c>
-      <c r="D16">
-        <v>8.0244999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17">
-        <v>8.3613999999999994E-2</v>
-      </c>
-      <c r="D17">
-        <v>3.2027E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <v>1.6057999999999999E-2</v>
-      </c>
-      <c r="D18">
-        <v>-1.7503999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>5.4615999999999998E-2</v>
-      </c>
-      <c r="D19">
-        <v>2.6530000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>2.7826E-2</v>
-      </c>
-      <c r="D20">
-        <v>8.5387000000000005E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21">
-        <v>2.8823000000000001E-2</v>
-      </c>
-      <c r="D21">
-        <v>5.5517999999999998E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22">
-        <v>4.2943000000000002E-2</v>
-      </c>
-      <c r="D22">
-        <v>0.105064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>2.7592999999999999E-2</v>
-      </c>
-      <c r="D23">
-        <v>3.4058999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24">
-        <v>0.111444</v>
-      </c>
-      <c r="D24">
-        <v>1.828E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>3.8248999999999998E-2</v>
-      </c>
-      <c r="D25">
-        <v>1.1608E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>-8.9251999999999998E-2</v>
-      </c>
-      <c r="D26">
-        <v>4.9858E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>-2.9151E-2</v>
-      </c>
-      <c r="D27">
-        <v>4.4270999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28">
-        <v>-5.633E-3</v>
-      </c>
-      <c r="D28">
-        <v>2.5259E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29">
-        <v>-2.8124E-2</v>
-      </c>
-      <c r="D29">
-        <v>0.13358700000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30">
-        <v>-8.0491999999999994E-2</v>
-      </c>
-      <c r="D30">
-        <v>0.29420200000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31">
-        <v>-2.5395000000000001E-2</v>
-      </c>
-      <c r="D31">
-        <v>6.0472999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32">
-        <v>-1.2179000000000001E-2</v>
-      </c>
-      <c r="D32">
-        <v>0.12180100000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33">
-        <v>8.9081999999999995E-2</v>
-      </c>
-      <c r="D33">
-        <v>0.127169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34">
-        <v>-1.5923E-2</v>
-      </c>
-      <c r="D34">
-        <v>3.1758000000000002E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35">
-        <v>3.5307999999999999E-2</v>
-      </c>
-      <c r="D35">
-        <v>6.1133E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36">
-        <v>-0.11740200000000001</v>
-      </c>
-      <c r="D36">
-        <v>7.3259000000000005E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37">
-        <v>-9.4486000000000001E-2</v>
-      </c>
-      <c r="D37">
-        <v>9.7886000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38">
-        <v>-5.5717999999999997E-2</v>
-      </c>
-      <c r="D38">
-        <v>0.108918</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39">
-        <v>-1.2507000000000001E-2</v>
-      </c>
-      <c r="D39">
-        <v>4.2180000000000002E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40">
-        <v>-9.6327999999999997E-2</v>
-      </c>
-      <c r="D40">
-        <v>0.122837</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41">
-        <v>-9.6530000000000005E-2</v>
-      </c>
-      <c r="D41">
-        <v>0.120153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42">
-        <v>-3.6826999999999999E-2</v>
-      </c>
-      <c r="D42">
-        <v>0.107048</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43">
-        <v>-2.9311E-2</v>
-      </c>
-      <c r="D43">
-        <v>5.4697000000000003E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44">
-        <v>8.1159999999999996E-2</v>
-      </c>
-      <c r="D44">
-        <v>0.122436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45">
-        <v>7.8736E-2</v>
-      </c>
-      <c r="D45">
-        <v>6.9845000000000004E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46">
-        <v>7.0807999999999996E-2</v>
-      </c>
-      <c r="D46">
-        <v>5.2042999999999999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47">
-        <v>-3.9189999999999997E-3</v>
-      </c>
-      <c r="D47">
-        <v>0.102427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48">
-        <v>-2.7562E-2</v>
-      </c>
-      <c r="D48">
-        <v>0.131441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49">
-        <v>2.1527999999999999E-2</v>
-      </c>
-      <c r="D49">
-        <v>0.101616</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50">
-        <v>4.9729000000000002E-2</v>
-      </c>
-      <c r="D50">
-        <v>5.6307999999999997E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51">
-        <v>-0.12778999999999999</v>
-      </c>
-      <c r="D51">
-        <v>0.104462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52">
-        <v>0.13217200000000001</v>
-      </c>
-      <c r="D52">
-        <v>0.12845699999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53">
-        <v>0.154559</v>
-      </c>
-      <c r="D53">
-        <v>0.201797</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54">
-        <v>-1.4683999999999999E-2</v>
-      </c>
-      <c r="D54">
-        <v>3.1067999999999998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55">
-        <v>6.3091999999999995E-2</v>
-      </c>
-      <c r="D55">
-        <v>6.2685000000000005E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56">
-        <v>9.4479999999999995E-2</v>
-      </c>
-      <c r="D56">
-        <v>-3.2309999999999998E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57">
-        <v>2.3838999999999999E-2</v>
-      </c>
-      <c r="D57">
-        <v>-3.0001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58">
-        <v>0.130833</v>
-      </c>
-      <c r="D58">
-        <v>-3.2793000000000003E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59">
-        <v>1.0729000000000001E-2</v>
-      </c>
-      <c r="D59">
-        <v>-8.9280000000000002E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60">
-        <v>-0.10034899999999999</v>
-      </c>
-      <c r="D60">
-        <v>5.4385999999999997E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61">
-        <v>4.2379E-2</v>
-      </c>
-      <c r="D61">
-        <v>0.114691</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62">
-        <v>1.7519E-2</v>
-      </c>
-      <c r="D62">
-        <v>4.6393999999999998E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63">
-        <v>2.3050000000000002E-3</v>
-      </c>
-      <c r="D63">
-        <v>3.6268000000000002E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64">
-        <v>5.0506000000000002E-2</v>
-      </c>
-      <c r="D64">
-        <v>4.8384999999999997E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65">
-        <v>-1.0108000000000001E-2</v>
-      </c>
-      <c r="D65">
-        <v>5.4133000000000001E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66">
-        <v>-3.2462999999999999E-2</v>
-      </c>
-      <c r="D66">
-        <v>2.4174000000000001E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67">
-        <v>-1.0142999999999999E-2</v>
-      </c>
-      <c r="D67">
-        <v>-9.9819999999999996E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68">
-        <v>6.8031999999999995E-2</v>
-      </c>
-      <c r="D68">
-        <v>0.140738</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69">
-        <v>7.8708E-2</v>
-      </c>
-      <c r="D69">
-        <v>0.104406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70">
-        <v>-2.9111999999999999E-2</v>
-      </c>
-      <c r="D70">
-        <v>4.7898999999999997E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71">
-        <v>2.9229999999999998E-3</v>
-      </c>
-      <c r="D71">
-        <v>3.2346E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>108</v>
-      </c>
-      <c r="B72" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72">
-        <v>-0.22106700000000001</v>
-      </c>
-      <c r="D72">
-        <v>2.6706000000000001E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73">
-        <v>-0.182141</v>
-      </c>
-      <c r="D73">
-        <v>-9.502E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74">
-        <v>-2.7137999999999999E-2</v>
-      </c>
-      <c r="D74">
-        <v>5.9975000000000001E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75">
-        <v>-6.055E-2</v>
-      </c>
-      <c r="D75">
-        <v>6.9349999999999995E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76">
-        <v>9.0189999999999992E-3</v>
-      </c>
-      <c r="D76">
-        <v>0.10498200000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77">
-        <v>6.8734000000000003E-2</v>
-      </c>
-      <c r="D77">
-        <v>7.7092999999999995E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78">
-        <v>4.9189999999999998E-3</v>
-      </c>
-      <c r="D78">
-        <v>4.3692000000000002E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79">
-        <v>2.1144E-2</v>
-      </c>
-      <c r="D79">
-        <v>9.4783999999999993E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80">
-        <v>-3.4939999999999999E-2</v>
-      </c>
-      <c r="D80">
-        <v>8.9269999999999992E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81">
-        <v>1.1287E-2</v>
-      </c>
-      <c r="D81">
-        <v>8.5360000000000002E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82">
-        <v>4.7162999999999997E-2</v>
-      </c>
-      <c r="D82">
-        <v>4.9502999999999998E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C83">
-        <v>0.123192</v>
-      </c>
-      <c r="D83">
-        <v>0.12823999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84">
-        <v>4.4187999999999998E-2</v>
-      </c>
-      <c r="D84">
-        <v>9.0519999999999993E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>128</v>
-      </c>
-      <c r="B85" t="s">
-        <v>127</v>
-      </c>
-      <c r="C85">
-        <v>0.106989</v>
-      </c>
-      <c r="D85">
-        <v>-2.4315E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86">
-        <v>7.1239999999999998E-2</v>
-      </c>
-      <c r="D86">
-        <v>-1.388E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87">
-        <v>9.3468999999999997E-2</v>
-      </c>
-      <c r="D87">
-        <v>-0.13438</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>132</v>
-      </c>
-      <c r="B88" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88">
-        <v>5.7543999999999998E-2</v>
-      </c>
-      <c r="D88">
-        <v>1.3554E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C89">
-        <v>9.0600000000000001E-4</v>
-      </c>
-      <c r="D89">
-        <v>-4.2101E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90">
-        <v>-1.7884000000000001E-2</v>
-      </c>
-      <c r="D90">
-        <v>5.7515999999999998E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91">
-        <v>1.7066000000000001E-2</v>
-      </c>
-      <c r="D91">
-        <v>2.8990999999999999E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92">
-        <v>-3.3925999999999998E-2</v>
-      </c>
-      <c r="D92">
-        <v>9.0755000000000002E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>140</v>
-      </c>
-      <c r="B93" t="s">
-        <v>139</v>
-      </c>
-      <c r="C93">
-        <v>-0.110751</v>
-      </c>
-      <c r="D93">
-        <v>0.127003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>141</v>
-      </c>
-      <c r="B94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C94">
-        <v>1.268E-3</v>
-      </c>
-      <c r="D94">
-        <v>6.3238000000000003E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" t="s">
-        <v>142</v>
-      </c>
-      <c r="C95">
-        <v>-2.4192999999999999E-2</v>
-      </c>
-      <c r="D95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>144</v>
-      </c>
-      <c r="B96" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96">
-        <v>-6.1405000000000001E-2</v>
-      </c>
-      <c r="D96">
-        <v>4.6612000000000001E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>146</v>
-      </c>
-      <c r="B97" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97">
-        <v>-5.441E-2</v>
-      </c>
-      <c r="D97">
-        <v>2.5946E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98">
-        <v>-1.6508999999999999E-2</v>
-      </c>
-      <c r="D98">
-        <v>6.8958000000000005E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>149</v>
-      </c>
-      <c r="B99" t="s">
-        <v>148</v>
-      </c>
-      <c r="C99">
-        <v>-1.6298E-2</v>
-      </c>
-      <c r="D99">
-        <v>1.7857999999999999E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>150</v>
-      </c>
-      <c r="B100" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100">
-        <v>5.0097999999999997E-2</v>
-      </c>
-      <c r="D100">
-        <v>3.2363999999999997E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>152</v>
-      </c>
-      <c r="B101" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101">
-        <v>-1.5880999999999999E-2</v>
-      </c>
-      <c r="D101">
-        <v>3.1460000000000002E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7586,10 +5846,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.7109999999999999E-2</v>
+        <v>3.7239999999999999E-3</v>
       </c>
       <c r="D2">
-        <v>2.0879000000000002E-2</v>
+        <v>-4.6979999999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7600,10 +5860,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4.8502000000000003E-2</v>
+        <v>5.8895999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>-9.4179999999999993E-3</v>
+        <v>-3.7239999999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7614,10 +5874,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.106402</v>
+        <v>2.9988999999999998E-2</v>
       </c>
       <c r="D4">
-        <v>2.9425E-2</v>
+        <v>2.1451000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7628,10 +5888,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8.9280999999999999E-2</v>
+        <v>-1.8112E-2</v>
       </c>
       <c r="D5">
-        <v>-1.7881999999999999E-2</v>
+        <v>2.9738000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7642,10 +5902,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>1.8085E-2</v>
+        <v>0.116359</v>
       </c>
       <c r="D6">
-        <v>1.8720000000000001E-2</v>
+        <v>0.107781</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7656,10 +5916,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.11805</v>
+        <v>7.5906000000000001E-2</v>
       </c>
       <c r="D7">
-        <v>-1.1764E-2</v>
+        <v>0.152558</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7670,10 +5930,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>7.5680000000000001E-3</v>
+        <v>6.0170000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>4.6350000000000002E-2</v>
+        <v>6.5670999999999993E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7684,10 +5944,10 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>-3.9400999999999999E-2</v>
+        <v>6.2286000000000001E-2</v>
       </c>
       <c r="D9">
-        <v>-1.9324000000000001E-2</v>
+        <v>9.4488000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7698,10 +5958,10 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.150371</v>
+        <v>-2.5658E-2</v>
       </c>
       <c r="D10">
-        <v>0.24664900000000001</v>
+        <v>-0.102856</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7712,10 +5972,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.245916</v>
+        <v>-0.11741500000000001</v>
       </c>
       <c r="D11">
-        <v>6.0824999999999997E-2</v>
+        <v>-0.202184</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7726,10 +5986,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.115659</v>
+        <v>9.5596E-2</v>
       </c>
       <c r="D12">
-        <v>-1.9189000000000001E-2</v>
+        <v>4.4047000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7740,10 +6000,10 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>6.1702E-2</v>
+        <v>0.108463</v>
       </c>
       <c r="D13">
-        <v>-4.3119999999999999E-2</v>
+        <v>6.5091999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7754,10 +6014,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>4.0242E-2</v>
+        <v>6.9277000000000005E-2</v>
       </c>
       <c r="D14">
-        <v>3.0145999999999999E-2</v>
+        <v>8.1432000000000004E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7768,10 +6028,10 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>6.2756999999999993E-2</v>
+        <v>3.4167000000000003E-2</v>
       </c>
       <c r="D15">
-        <v>-6.3969999999999999E-3</v>
+        <v>1.9778E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7782,10 +6042,10 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>0.15446799999999999</v>
+        <v>-1.2444E-2</v>
       </c>
       <c r="D16">
-        <v>6.4942E-2</v>
+        <v>1.0007E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7796,10 +6056,10 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>4.4387999999999997E-2</v>
+        <v>3.7324000000000003E-2</v>
       </c>
       <c r="D17">
-        <v>1.9769999999999999E-2</v>
+        <v>-2.3324999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7810,10 +6070,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>5.6455999999999999E-2</v>
+        <v>-2.4205000000000001E-2</v>
       </c>
       <c r="D18">
-        <v>-4.7541E-2</v>
+        <v>-2.8022999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7824,10 +6084,10 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>5.9922999999999997E-2</v>
+        <v>7.7710000000000001E-2</v>
       </c>
       <c r="D19">
-        <v>5.5449999999999996E-3</v>
+        <v>5.9567000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7838,10 +6098,10 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>7.8037999999999996E-2</v>
+        <v>6.1505999999999998E-2</v>
       </c>
       <c r="D20">
-        <v>9.5862000000000003E-2</v>
+        <v>5.5465E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7852,10 +6112,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>7.1509000000000003E-2</v>
+        <v>9.5490000000000002E-3</v>
       </c>
       <c r="D21">
-        <v>4.6073999999999997E-2</v>
+        <v>3.2992E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7866,10 +6126,10 @@
         <v>34</v>
       </c>
       <c r="C22">
-        <v>-3.7323000000000002E-2</v>
+        <v>7.5417999999999999E-2</v>
       </c>
       <c r="D22">
-        <v>6.7655000000000007E-2</v>
+        <v>8.6064000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7880,10 +6140,10 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>1.3984999999999999E-2</v>
+        <v>4.3983000000000001E-2</v>
       </c>
       <c r="D23">
-        <v>2.0924999999999999E-2</v>
+        <v>3.3828999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7894,10 +6154,10 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <v>0.16345100000000001</v>
+        <v>-3.9137999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>-4.4581999999999997E-2</v>
+        <v>2.8135E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7908,10 +6168,10 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <v>6.3546000000000005E-2</v>
+        <v>-0.11897199999999999</v>
       </c>
       <c r="D25">
-        <v>1.4125E-2</v>
+        <v>-0.13245999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7922,10 +6182,10 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>0.163518</v>
+        <v>3.1701E-2</v>
       </c>
       <c r="D26">
-        <v>5.5199999999999997E-4</v>
+        <v>9.2450000000000004E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7936,10 +6196,10 @@
         <v>40</v>
       </c>
       <c r="C27">
-        <v>6.7474000000000006E-2</v>
+        <v>4.0231999999999997E-2</v>
       </c>
       <c r="D27">
-        <v>-1.1756000000000001E-2</v>
+        <v>6.0649000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7950,10 +6210,10 @@
         <v>43</v>
       </c>
       <c r="C28">
-        <v>5.7119000000000003E-2</v>
+        <v>1.1386E-2</v>
       </c>
       <c r="D28">
-        <v>3.5410999999999998E-2</v>
+        <v>-7.1666999999999995E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7964,10 +6224,10 @@
         <v>43</v>
       </c>
       <c r="C29">
-        <v>2.81E-4</v>
+        <v>3.2946000000000003E-2</v>
       </c>
       <c r="D29">
-        <v>0.119673</v>
+        <v>-6.3664999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7978,10 +6238,10 @@
         <v>46</v>
       </c>
       <c r="C30">
-        <v>0.27649800000000002</v>
+        <v>-0.10699599999999999</v>
       </c>
       <c r="D30">
-        <v>0.26824399999999998</v>
+        <v>-6.9158999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7992,10 +6252,10 @@
         <v>46</v>
       </c>
       <c r="C31">
-        <v>4.5716E-2</v>
+        <v>-3.4623000000000001E-2</v>
       </c>
       <c r="D31">
-        <v>4.5574999999999997E-2</v>
+        <v>-2.3057999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8006,10 +6266,10 @@
         <v>49</v>
       </c>
       <c r="C32">
-        <v>0.129413</v>
+        <v>-0.112397</v>
       </c>
       <c r="D32">
-        <v>0.11722100000000001</v>
+        <v>-0.155801</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8020,10 +6280,10 @@
         <v>49</v>
       </c>
       <c r="C33">
-        <v>0.14147399999999999</v>
+        <v>-0.107417</v>
       </c>
       <c r="D33">
-        <v>9.5729999999999996E-2</v>
+        <v>-0.16822500000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8034,10 +6294,10 @@
         <v>52</v>
       </c>
       <c r="C34">
-        <v>8.4357000000000001E-2</v>
+        <v>4.365E-3</v>
       </c>
       <c r="D34">
-        <v>2.1199999999999999E-3</v>
+        <v>5.6105000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8048,10 +6308,10 @@
         <v>52</v>
       </c>
       <c r="C35">
-        <v>4.3452999999999999E-2</v>
+        <v>-1.3129E-2</v>
       </c>
       <c r="D35">
-        <v>3.9427999999999998E-2</v>
+        <v>2.5250999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8062,10 +6322,10 @@
         <v>55</v>
       </c>
       <c r="C36">
-        <v>0.18195</v>
+        <v>-0.14322399999999999</v>
       </c>
       <c r="D36">
-        <v>5.0984000000000002E-2</v>
+        <v>-0.107358</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8076,10 +6336,10 @@
         <v>55</v>
       </c>
       <c r="C37">
-        <v>0.20696100000000001</v>
+        <v>-0.12598300000000001</v>
       </c>
       <c r="D37">
-        <v>7.5378000000000001E-2</v>
+        <v>-0.14354600000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8090,10 +6350,10 @@
         <v>58</v>
       </c>
       <c r="C38">
-        <v>6.3E-2</v>
+        <v>3.7657000000000003E-2</v>
       </c>
       <c r="D38">
-        <v>6.9313E-2</v>
+        <v>-6.3379999999999999E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8104,10 +6364,10 @@
         <v>58</v>
       </c>
       <c r="C39">
-        <v>5.8956000000000001E-2</v>
+        <v>1.1945000000000001E-2</v>
       </c>
       <c r="D39">
-        <v>8.548E-3</v>
+        <v>-7.012E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8118,10 +6378,10 @@
         <v>61</v>
       </c>
       <c r="C40">
-        <v>0.15259300000000001</v>
+        <v>-0.19942599999999999</v>
       </c>
       <c r="D40">
-        <v>0.109516</v>
+        <v>-0.119646</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8132,10 +6392,10 @@
         <v>61</v>
       </c>
       <c r="C41">
-        <v>0.106734</v>
+        <v>-0.179983</v>
       </c>
       <c r="D41">
-        <v>0.167349</v>
+        <v>-0.19947000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -8146,10 +6406,10 @@
         <v>64</v>
       </c>
       <c r="C42">
-        <v>0.13517199999999999</v>
+        <v>-2.5901E-2</v>
       </c>
       <c r="D42">
-        <v>0.11228200000000001</v>
+        <v>3.82E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8160,10 +6420,10 @@
         <v>64</v>
       </c>
       <c r="C43">
-        <v>8.2388000000000003E-2</v>
+        <v>-2.1940999999999999E-2</v>
       </c>
       <c r="D43">
-        <v>1.8533000000000001E-2</v>
+        <v>-2.8701999999999998E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8174,10 +6434,10 @@
         <v>67</v>
       </c>
       <c r="C44">
-        <v>8.3665000000000003E-2</v>
+        <v>8.7048E-2</v>
       </c>
       <c r="D44">
-        <v>0.109324</v>
+        <v>2.02E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8188,10 +6448,10 @@
         <v>67</v>
       </c>
       <c r="C45">
-        <v>4.7860000000000003E-3</v>
+        <v>0.10100099999999999</v>
       </c>
       <c r="D45">
-        <v>5.0515999999999998E-2</v>
+        <v>3.3730000000000001E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8202,10 +6462,10 @@
         <v>70</v>
       </c>
       <c r="C46">
-        <v>5.2448000000000002E-2</v>
+        <v>-1.6483999999999999E-2</v>
       </c>
       <c r="D46">
-        <v>3.7664000000000003E-2</v>
+        <v>-2.3647000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8216,10 +6476,10 @@
         <v>70</v>
       </c>
       <c r="C47">
-        <v>7.0930999999999994E-2</v>
+        <v>3.7963999999999998E-2</v>
       </c>
       <c r="D47">
-        <v>8.9732000000000006E-2</v>
+        <v>4.5996000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -8230,10 +6490,10 @@
         <v>73</v>
       </c>
       <c r="C48">
-        <v>0.161051</v>
+        <v>-8.3180000000000004E-2</v>
       </c>
       <c r="D48">
-        <v>0.105546</v>
+        <v>-1.6785000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -8244,10 +6504,10 @@
         <v>73</v>
       </c>
       <c r="C49">
-        <v>0.208923</v>
+        <v>-4.2314999999999998E-2</v>
       </c>
       <c r="D49">
-        <v>4.2028999999999997E-2</v>
+        <v>-5.4115999999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8258,10 +6518,10 @@
         <v>76</v>
       </c>
       <c r="C50">
-        <v>2.2530000000000001E-2</v>
+        <v>1.4803E-2</v>
       </c>
       <c r="D50">
-        <v>1.1800000000000001E-3</v>
+        <v>8.0510000000000009E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8272,10 +6532,10 @@
         <v>76</v>
       </c>
       <c r="C51">
-        <v>0.116339</v>
+        <v>-8.9379999999999998E-3</v>
       </c>
       <c r="D51">
-        <v>4.0155000000000003E-2</v>
+        <v>-3.7423999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8286,10 +6546,10 @@
         <v>79</v>
       </c>
       <c r="C52">
-        <v>7.6928999999999997E-2</v>
+        <v>4.2082000000000001E-2</v>
       </c>
       <c r="D52">
-        <v>0.116576</v>
+        <v>7.8132999999999994E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -8300,10 +6560,10 @@
         <v>79</v>
       </c>
       <c r="C53">
-        <v>0.10442</v>
+        <v>0.22489000000000001</v>
       </c>
       <c r="D53">
-        <v>0.16666300000000001</v>
+        <v>0.16176499999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8314,10 +6574,10 @@
         <v>82</v>
       </c>
       <c r="C54">
-        <v>4.6246000000000002E-2</v>
+        <v>-2.6979999999999999E-3</v>
       </c>
       <c r="D54">
-        <v>7.2779999999999997E-3</v>
+        <v>1.8461000000000002E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8328,10 +6588,10 @@
         <v>82</v>
       </c>
       <c r="C55">
-        <v>7.8799999999999995E-2</v>
+        <v>9.0624999999999997E-2</v>
       </c>
       <c r="D55">
-        <v>7.0809999999999996E-3</v>
+        <v>4.0176999999999997E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8342,10 +6602,10 @@
         <v>85</v>
       </c>
       <c r="C56">
-        <v>2.9009999999999999E-3</v>
+        <v>0.15146200000000001</v>
       </c>
       <c r="D56">
-        <v>-8.6915000000000006E-2</v>
+        <v>0.15103800000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8356,10 +6616,10 @@
         <v>85</v>
       </c>
       <c r="C57">
-        <v>4.4491999999999997E-2</v>
+        <v>8.8791999999999996E-2</v>
       </c>
       <c r="D57">
-        <v>-1.7906999999999999E-2</v>
+        <v>9.0891E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -8370,10 +6630,10 @@
         <v>88</v>
       </c>
       <c r="C58">
-        <v>3.9754999999999999E-2</v>
+        <v>2.1125000000000001E-2</v>
       </c>
       <c r="D58">
-        <v>-1.3292E-2</v>
+        <v>3.7877000000000001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -8384,10 +6644,10 @@
         <v>88</v>
       </c>
       <c r="C59">
-        <v>4.9690000000000003E-3</v>
+        <v>-1.4049000000000001E-2</v>
       </c>
       <c r="D59">
-        <v>-4.3118999999999998E-2</v>
+        <v>2.0372999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8398,10 +6658,10 @@
         <v>91</v>
       </c>
       <c r="C60">
-        <v>7.6000000000000004E-5</v>
+        <v>6.4869999999999997E-2</v>
       </c>
       <c r="D60">
-        <v>2.7397999999999999E-2</v>
+        <v>7.3257000000000003E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8412,10 +6672,10 @@
         <v>91</v>
       </c>
       <c r="C61">
-        <v>-7.7063000000000006E-2</v>
+        <v>6.6441E-2</v>
       </c>
       <c r="D61">
-        <v>8.6300000000000002E-2</v>
+        <v>2.009E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8426,10 +6686,10 @@
         <v>94</v>
       </c>
       <c r="C62">
-        <v>-1.1594999999999999E-2</v>
+        <v>0.11384</v>
       </c>
       <c r="D62">
-        <v>-2.0282999999999999E-2</v>
+        <v>0.10226200000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -8440,10 +6700,10 @@
         <v>94</v>
       </c>
       <c r="C63">
-        <v>6.2967999999999996E-2</v>
+        <v>0.116466</v>
       </c>
       <c r="D63">
-        <v>-3.1831999999999999E-2</v>
+        <v>6.3233999999999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8454,10 +6714,10 @@
         <v>97</v>
       </c>
       <c r="C64">
-        <v>3.2044000000000003E-2</v>
+        <v>5.3148000000000001E-2</v>
       </c>
       <c r="D64">
-        <v>3.6608000000000002E-2</v>
+        <v>5.0428000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -8468,10 +6728,10 @@
         <v>97</v>
       </c>
       <c r="C65">
-        <v>4.5630999999999998E-2</v>
+        <v>2.5717E-2</v>
       </c>
       <c r="D65">
-        <v>-2.206E-2</v>
+        <v>1.1324000000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -8482,10 +6742,10 @@
         <v>100</v>
       </c>
       <c r="C66">
-        <v>5.6769999999999998E-3</v>
+        <v>2.4905E-2</v>
       </c>
       <c r="D66">
-        <v>6.1539999999999997E-3</v>
+        <v>6.8666000000000005E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -8496,10 +6756,10 @@
         <v>100</v>
       </c>
       <c r="C67">
-        <v>2.8069E-2</v>
+        <v>3.8501000000000001E-2</v>
       </c>
       <c r="D67">
-        <v>-2.4315E-2</v>
+        <v>3.8825999999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -8510,10 +6770,10 @@
         <v>103</v>
       </c>
       <c r="C68">
-        <v>9.4272999999999996E-2</v>
+        <v>0.13258800000000001</v>
       </c>
       <c r="D68">
-        <v>0.12875500000000001</v>
+        <v>0.11219999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -8524,10 +6784,10 @@
         <v>103</v>
       </c>
       <c r="C69">
-        <v>8.5724999999999996E-2</v>
+        <v>9.3620999999999996E-2</v>
       </c>
       <c r="D69">
-        <v>7.2806999999999997E-2</v>
+        <v>7.2201000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -8538,10 +6798,10 @@
         <v>106</v>
       </c>
       <c r="C70">
-        <v>-6.3790000000000001E-3</v>
+        <v>-4.0000000000000003E-5</v>
       </c>
       <c r="D70">
-        <v>-5.9769999999999997E-3</v>
+        <v>-3.3153000000000002E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -8552,10 +6812,10 @@
         <v>106</v>
       </c>
       <c r="C71">
-        <v>5.7188000000000003E-2</v>
+        <v>1.6791E-2</v>
       </c>
       <c r="D71">
-        <v>-1.3801000000000001E-2</v>
+        <v>3.7265E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -8566,10 +6826,10 @@
         <v>109</v>
       </c>
       <c r="C72">
-        <v>7.3351E-2</v>
+        <v>0.16984199999999999</v>
       </c>
       <c r="D72">
-        <v>-1.068E-2</v>
+        <v>0.16855600000000001</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8580,10 +6840,10 @@
         <v>109</v>
       </c>
       <c r="C73">
-        <v>4.3860000000000003E-2</v>
+        <v>0.142985</v>
       </c>
       <c r="D73">
-        <v>-4.3452999999999999E-2</v>
+        <v>0.119972</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -8594,10 +6854,10 @@
         <v>112</v>
       </c>
       <c r="C74">
-        <v>1.2723E-2</v>
+        <v>0.219586</v>
       </c>
       <c r="D74">
-        <v>-1.3053E-2</v>
+        <v>0.112729</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -8608,10 +6868,10 @@
         <v>112</v>
       </c>
       <c r="C75">
-        <v>-1.4832E-2</v>
+        <v>0.179364</v>
       </c>
       <c r="D75">
-        <v>1.5923E-2</v>
+        <v>8.4959000000000007E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -8622,10 +6882,10 @@
         <v>115</v>
       </c>
       <c r="C76">
-        <v>9.8799999999999999E-2</v>
+        <v>-4.4916999999999999E-2</v>
       </c>
       <c r="D76">
-        <v>6.6114999999999993E-2</v>
+        <v>-3.9661000000000002E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -8636,10 +6896,10 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>0.107529</v>
+        <v>1.3982E-2</v>
       </c>
       <c r="D77">
-        <v>2.0957E-2</v>
+        <v>2.3902E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8650,10 +6910,10 @@
         <v>118</v>
       </c>
       <c r="C78">
-        <v>3.4653000000000003E-2</v>
+        <v>6.2741000000000005E-2</v>
       </c>
       <c r="D78">
-        <v>9.8040000000000002E-3</v>
+        <v>7.5851000000000002E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8664,10 +6924,10 @@
         <v>118</v>
       </c>
       <c r="C79">
-        <v>5.5407999999999999E-2</v>
+        <v>3.5680000000000003E-2</v>
       </c>
       <c r="D79">
-        <v>8.1434999999999994E-2</v>
+        <v>2.2502000000000001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8678,10 +6938,10 @@
         <v>121</v>
       </c>
       <c r="C80">
-        <v>2.5045000000000001E-2</v>
+        <v>0.105932</v>
       </c>
       <c r="D80">
-        <v>-4.2132999999999997E-2</v>
+        <v>2.8542999999999999E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -8692,10 +6952,10 @@
         <v>121</v>
       </c>
       <c r="C81">
-        <v>5.1683E-2</v>
+        <v>6.5971000000000002E-2</v>
       </c>
       <c r="D81">
-        <v>-3.3832000000000001E-2</v>
+        <v>5.4970999999999999E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8706,10 +6966,10 @@
         <v>124</v>
       </c>
       <c r="C82">
-        <v>-1.2531E-2</v>
+        <v>0.122917</v>
       </c>
       <c r="D82">
-        <v>-1.178E-3</v>
+        <v>5.7156999999999999E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -8720,10 +6980,10 @@
         <v>124</v>
       </c>
       <c r="C83">
-        <v>6.4801999999999998E-2</v>
+        <v>5.1216999999999999E-2</v>
       </c>
       <c r="D83">
-        <v>0.12708700000000001</v>
+        <v>0.14330799999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8734,10 +6994,10 @@
         <v>127</v>
       </c>
       <c r="C84">
-        <v>1.5775000000000001E-2</v>
+        <v>8.7443000000000007E-2</v>
       </c>
       <c r="D84">
-        <v>-3.1591000000000001E-2</v>
+        <v>0.15837100000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -8748,10 +7008,10 @@
         <v>127</v>
       </c>
       <c r="C85">
-        <v>2.2884999999999999E-2</v>
+        <v>2.7990000000000001E-2</v>
       </c>
       <c r="D85">
-        <v>-6.1067000000000003E-2</v>
+        <v>8.4279999999999997E-3</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8762,10 +7022,10 @@
         <v>130</v>
       </c>
       <c r="C86">
-        <v>0.189188</v>
+        <v>-4.9149999999999999E-2</v>
       </c>
       <c r="D86">
-        <v>-3.3236000000000002E-2</v>
+        <v>-0.13652300000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -8776,10 +7036,10 @@
         <v>130</v>
       </c>
       <c r="C87">
-        <v>0.12928999999999999</v>
+        <v>-6.3695000000000002E-2</v>
       </c>
       <c r="D87">
-        <v>-0.16744700000000001</v>
+        <v>-9.5953999999999998E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -8790,10 +7050,10 @@
         <v>133</v>
       </c>
       <c r="C88">
-        <v>-8.0951999999999996E-2</v>
+        <v>0.13642799999999999</v>
       </c>
       <c r="D88">
-        <v>-3.4469E-2</v>
+        <v>7.4756000000000003E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -8804,10 +7064,10 @@
         <v>133</v>
       </c>
       <c r="C89">
-        <v>8.6799999999999996E-4</v>
+        <v>7.9537999999999998E-2</v>
       </c>
       <c r="D89">
-        <v>-6.7776000000000003E-2</v>
+        <v>6.2995999999999996E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8818,10 +7078,10 @@
         <v>136</v>
       </c>
       <c r="C90">
-        <v>6.4259999999999998E-2</v>
+        <v>7.6746999999999996E-2</v>
       </c>
       <c r="D90">
-        <v>4.5518000000000003E-2</v>
+        <v>7.0970000000000005E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -8832,10 +7092,10 @@
         <v>136</v>
       </c>
       <c r="C91">
-        <v>2.8688999999999999E-2</v>
+        <v>8.9846999999999996E-2</v>
       </c>
       <c r="D91">
-        <v>-1.1761000000000001E-2</v>
+        <v>6.4893999999999993E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -8846,10 +7106,10 @@
         <v>139</v>
       </c>
       <c r="C92">
-        <v>0.117684</v>
+        <v>0.13408</v>
       </c>
       <c r="D92">
-        <v>6.6498000000000002E-2</v>
+        <v>0.16921900000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -8860,10 +7120,10 @@
         <v>139</v>
       </c>
       <c r="C93">
-        <v>0.14157800000000001</v>
+        <v>8.4675E-2</v>
       </c>
       <c r="D93">
-        <v>0.116399</v>
+        <v>0.196128</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -8874,10 +7134,10 @@
         <v>142</v>
       </c>
       <c r="C94">
-        <v>1.8669000000000002E-2</v>
+        <v>-1.7079E-2</v>
       </c>
       <c r="D94">
-        <v>7.9190000000000007E-3</v>
+        <v>3.1530000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8888,10 +7148,10 @@
         <v>142</v>
       </c>
       <c r="C95">
-        <v>0.12681500000000001</v>
+        <v>-3.0242999999999999E-2</v>
       </c>
       <c r="D95">
-        <v>2.2665999999999999E-2</v>
+        <v>-3.9960000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -8902,10 +7162,10 @@
         <v>145</v>
       </c>
       <c r="C96">
-        <v>0.17872099999999999</v>
+        <v>4.0569999999999998E-3</v>
       </c>
       <c r="D96">
-        <v>1.24E-3</v>
+        <v>-2.2348E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -8916,10 +7176,10 @@
         <v>145</v>
       </c>
       <c r="C97">
-        <v>0.210317</v>
+        <v>-9.1078000000000006E-2</v>
       </c>
       <c r="D97">
-        <v>-5.5627000000000003E-2</v>
+        <v>-6.0135000000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -8930,10 +7190,10 @@
         <v>148</v>
       </c>
       <c r="C98">
-        <v>0.14701700000000001</v>
+        <v>-3.2793000000000003E-2</v>
       </c>
       <c r="D98">
-        <v>2.0742E-2</v>
+        <v>1.9588000000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -8944,10 +7204,10 @@
         <v>148</v>
       </c>
       <c r="C99">
-        <v>0.102643</v>
+        <v>-4.6237E-2</v>
       </c>
       <c r="D99">
-        <v>-1.418E-3</v>
+        <v>-1.7347000000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -8958,10 +7218,10 @@
         <v>151</v>
       </c>
       <c r="C100">
-        <v>1.6053999999999999E-2</v>
+        <v>3.6947000000000001E-2</v>
       </c>
       <c r="D100">
-        <v>-4.6319999999999998E-3</v>
+        <v>-5.8929999999999998E-3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -8972,10 +7232,1145 @@
         <v>151</v>
       </c>
       <c r="C101">
-        <v>3.0030999999999999E-2</v>
+        <v>3.0363999999999999E-2</v>
       </c>
       <c r="D101">
-        <v>2.579E-2</v>
+        <v>-2.9458000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>-1.9012999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5.1743999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>5.2316000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3.0950000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4.0820000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7.8611E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2.6397E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>8.3824999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>8.3689999999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>-0.109955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>0.10352500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0.107668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0.10986700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>4.6335000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>8.2039999999999995E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>5.3270999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>-5.1303000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>-9.0709999999999992E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>4.6109999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>-3.628E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>0.11708399999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>7.2512999999999994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>1.9328999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>-0.176618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>-2.232E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>2.1506000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>1.5932999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>1.3689E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>-0.192492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>-0.14332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>-6.9079000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33">
+        <v>-9.7639000000000004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>-2.0934999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>2.2877000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>333</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>-0.152113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>334</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>-6.8611000000000005E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>3.5351E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>-1.235E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>337</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>-1.6112999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41">
+        <v>-3.1719999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <v>-4.8822999999999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>1.082E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>341</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>2.5548999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>342</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>7.4088000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>-2.5385000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>2.4559000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-1.4201E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>346</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>4.0617E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50">
+        <v>1.2796999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>348</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-5.8226E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <v>4.2261E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>350</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53">
+        <v>0.16966700000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>351</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54">
+        <v>4.1022000000000003E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55">
+        <v>7.6534000000000005E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56">
+        <v>6.2238000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57">
+        <v>8.7641999999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58">
+        <v>-8.3129999999999992E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59">
+        <v>-4.5553999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>357</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60">
+        <v>7.3070999999999997E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>358</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61">
+        <v>2.8219000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62">
+        <v>0.107055</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63">
+        <v>0.120298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>361</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64">
+        <v>3.4763000000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65">
+        <v>1.8294000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>9.2860000000000009E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>364</v>
+      </c>
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>2.1007999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68">
+        <v>0.18309600000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69">
+        <v>0.120925</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>367</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70">
+        <v>5.3310000000000003E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71">
+        <v>7.3501999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72">
+        <v>0.14316499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73">
+        <v>0.15240200000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>371</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74">
+        <v>0.20127400000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75">
+        <v>0.14692</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76">
+        <v>5.2054000000000003E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>374</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77">
+        <v>3.7898000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78">
+        <v>4.1409000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>376</v>
+      </c>
+      <c r="B79" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79">
+        <v>2.4066000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>377</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80">
+        <v>9.6953999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>378</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81">
+        <v>7.9377000000000003E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>379</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82">
+        <v>5.5958000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>380</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83">
+        <v>0.12993299999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>381</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84">
+        <v>5.9095000000000002E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>382</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85">
+        <v>-8.6070000000000001E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>383</v>
+      </c>
+      <c r="B86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86">
+        <v>-0.124949</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>384</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87">
+        <v>-0.115579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>385</v>
+      </c>
+      <c r="B88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88">
+        <v>0.100162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>386</v>
+      </c>
+      <c r="B89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89">
+        <v>3.1947000000000003E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>387</v>
+      </c>
+      <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90">
+        <v>5.7367000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91">
+        <v>9.1274999999999995E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>389</v>
+      </c>
+      <c r="B92" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92">
+        <v>0.106361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>390</v>
+      </c>
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93">
+        <v>-3.5119999999999999E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>391</v>
+      </c>
+      <c r="B94" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94">
+        <v>-5.9329999999999999E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>392</v>
+      </c>
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95">
+        <v>-4.1415E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>393</v>
+      </c>
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96">
+        <v>0.17410200000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>394</v>
+      </c>
+      <c r="B97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97">
+        <v>3.6880000000000003E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>395</v>
+      </c>
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98">
+        <v>-3.4763000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>396</v>
+      </c>
+      <c r="B99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99">
+        <v>-8.4279999999999997E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>397</v>
+      </c>
+      <c r="B100" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100">
+        <v>-6.6559999999999996E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>398</v>
+      </c>
+      <c r="B101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101">
+        <v>5.0451999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8990,15 +8385,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>163</v>
+      <c r="A1" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="B1" t="s">
         <v>154</v>
@@ -9012,18 +8407,18 @@
         <v>156</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(TgCvWtC!C2:C25)</f>
-        <v>0.13324200000000003</v>
+        <f>AVERAGE('CA1'!C2:C25)</f>
+        <v>-1.9593916666666666E-2</v>
       </c>
       <c r="C2">
-        <f>_xlfn.STDEV.S(TgCvWtC!C2:C25)</f>
-        <v>3.4146296767826996E-2</v>
+        <f>_xlfn.STDEV.S('CA1'!C2:C25)</f>
+        <v>7.9192232141529956E-2</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9031,15 +8426,15 @@
         <v>157</v>
       </c>
       <c r="B3">
-        <f>AVERAGE(TgCvWtC!C26,TgCvWtC!C49)</f>
-        <v>0.14893400000000001</v>
+        <f>AVERAGE('CA1'!C26,'CA1'!C49)</f>
+        <v>5.5462999999999998E-2</v>
       </c>
       <c r="C3">
-        <f>_xlfn.STDEV.S(TgCvWtC!C26,TgCvWtC!C49)</f>
-        <v>1.8372048388788881E-2</v>
+        <f>_xlfn.STDEV.S('CA1'!C26,'CA1'!C49)</f>
+        <v>9.4999796052412669E-2</v>
       </c>
       <c r="K3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9047,15 +8442,15 @@
         <v>158</v>
       </c>
       <c r="B4">
-        <f>AVERAGE(TgCvWtC!C50,TgCvWtC!C75)</f>
-        <v>0.14841650000000001</v>
+        <f>AVERAGE('CA1'!C50,'CA1'!C75)</f>
+        <v>-3.6489999999999995E-3</v>
       </c>
       <c r="C4">
-        <f>_xlfn.STDEV.S(TgCvWtC!C50:C75)</f>
-        <v>4.1550537115254561E-2</v>
+        <f>_xlfn.STDEV.S('CA1'!C50:C75)</f>
+        <v>6.0653011182678747E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9063,22 +8458,20 @@
         <v>159</v>
       </c>
       <c r="B5">
-        <f>AVERAGE(TgCvWtC!C76,TgCvWtC!C101)</f>
-        <v>0.180842</v>
+        <f>AVERAGE('CA1'!C76,'CA1'!C101)</f>
+        <v>-4.7426999999999997E-2</v>
       </c>
       <c r="C5">
-        <f>_xlfn.STDEV.S(TgCvWtC!C76:C101)</f>
-        <v>4.9082893562766433E-2</v>
+        <f>_xlfn.STDEV.S('CA1'!C76:C101)</f>
+        <v>9.411619767906379E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>160</v>
+      <c r="A19" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="B19" t="s">
         <v>154</v>
@@ -9092,18 +8485,18 @@
         <v>156</v>
       </c>
       <c r="B20">
-        <f>AVERAGE(TgLvC!C2:C25)</f>
-        <v>5.169454166666667E-2</v>
+        <f>AVERAGE(GM!C2:C25)</f>
+        <v>2.6118458333333327E-2</v>
       </c>
       <c r="C20">
-        <f>_xlfn.STDEV.S(TgLvC!C2:C25)</f>
-        <v>5.3995861152965806E-2</v>
+        <f>_xlfn.STDEV.S(GM!C2:C25)</f>
+        <v>7.0175692097068323E-2</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -9111,18 +8504,18 @@
         <v>157</v>
       </c>
       <c r="B21">
-        <f>AVERAGE(TgLvC!C26:C49)</f>
-        <v>-2.0004874999999995E-2</v>
+        <f>AVERAGE(GM!C26:C49)</f>
+        <v>-2.3765041666666653E-2</v>
       </c>
       <c r="C21">
-        <f>_xlfn.STDEV.S(TgLvC!C26:C49)</f>
-        <v>5.9914613265236269E-2</v>
+        <f>_xlfn.STDEV.S(GM!C26:C49)</f>
+        <v>6.6372803511993275E-2</v>
       </c>
       <c r="K21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -9130,18 +8523,18 @@
         <v>158</v>
       </c>
       <c r="B22">
-        <f>AVERAGE(TgLvC!C50:C75)</f>
-        <v>4.0869230769230774E-3</v>
+        <f>AVERAGE(GM!C50:C75)</f>
+        <v>7.1794461538461529E-2</v>
       </c>
       <c r="C22">
-        <f>_xlfn.STDEV.S(TgLvC!C50:C75)</f>
-        <v>9.0502210393303903E-2</v>
+        <f>_xlfn.STDEV.S(GM!C50:C75)</f>
+        <v>6.8614906478537602E-2</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -9149,26 +8542,26 @@
         <v>159</v>
       </c>
       <c r="B23">
-        <f>AVERAGE(TgLvC!C76:C101)</f>
-        <v>1.3154961538461539E-2</v>
+        <f>AVERAGE(GM!C76:C101)</f>
+        <v>3.3671076923076929E-2</v>
       </c>
       <c r="C23">
-        <f>_xlfn.STDEV.S(TgLvC!C76:C101)</f>
-        <v>5.4660889641849598E-2</v>
+        <f>_xlfn.STDEV.S(GM!C76:C101)</f>
+        <v>6.8265828395719666E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="K24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -9177,118 +8570,25 @@
     <row r="28" spans="1:13">
       <c r="M28" s="2"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38">
-        <f>AVERAGE(TgLvC!D2:D25)</f>
-        <v>3.7843916666666665E-2</v>
-      </c>
-      <c r="C38">
-        <f>_xlfn.STDEV.S(TgLvC!D2:D25)</f>
-        <v>4.0930312993329089E-2</v>
-      </c>
-      <c r="K38" t="s">
-        <v>173</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39">
-        <f>AVERAGE(TgLvC!D26:D49)</f>
-        <v>9.4012374999999995E-2</v>
-      </c>
-      <c r="C39">
-        <f>_xlfn.STDEV.S(TgLvC!D26:D49)</f>
-        <v>5.5172933682324066E-2</v>
-      </c>
-      <c r="K39" t="s">
-        <v>174</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40">
-        <f>AVERAGE(TgLvC!D50:D75)</f>
-        <v>5.0811999999999996E-2</v>
-      </c>
-      <c r="C40">
-        <f>_xlfn.STDEV.S(TgLvC!D50:D75)</f>
-        <v>5.6908679976959586E-2</v>
-      </c>
-      <c r="K40" t="s">
-        <v>175</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41">
-        <f>AVERAGE(TgLvC!D76:D101)</f>
-        <v>3.6872615384615386E-2</v>
-      </c>
-      <c r="C41">
-        <f>_xlfn.STDEV.S(TgLvC!D76:D101)</f>
-        <v>5.5450986708679526E-2</v>
-      </c>
-      <c r="K41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="K42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="K43" t="s">
-        <v>178</v>
-      </c>
+    <row r="38" spans="12:12">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="12:12">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="12:12">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="43" spans="12:12">
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12">
-      <c r="K44" t="s">
-        <v>179</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="K45" t="s">
-        <v>180</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+    <row r="44" spans="12:12">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="12:12">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="47" spans="12:12">
       <c r="L47" s="2"/>
     </row>
     <row r="50" spans="1:14">
@@ -9305,8 +8605,8 @@
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="1" t="s">
-        <v>164</v>
+      <c r="A54" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -9325,18 +8625,18 @@
         <v>156</v>
       </c>
       <c r="B56">
-        <f>AVERAGE(TgLvWtC!C2:C25)</f>
-        <v>7.2528541666666682E-2</v>
+        <f>AVERAGE('CA3'!C2:C25)</f>
+        <v>2.7682458333333337E-2</v>
       </c>
       <c r="C56">
-        <f>_xlfn.STDEV.S(TgLvWtC!C2:C25)</f>
-        <v>6.4427483567036772E-2</v>
+        <f>_xlfn.STDEV.S('CA3'!C2:C25)</f>
+        <v>6.2480922302925991E-2</v>
       </c>
       <c r="K56" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -9344,18 +8644,18 @@
         <v>157</v>
       </c>
       <c r="B57">
-        <f>AVERAGE(TgLvWtC!C26:C49)</f>
-        <v>0.10745254166666668</v>
+        <f>AVERAGE('CA3'!C26:C49)</f>
+        <v>-3.4031416666666668E-2</v>
       </c>
       <c r="C57">
-        <f>_xlfn.STDEV.S(TgLvWtC!C26:C49)</f>
-        <v>6.8925549038502815E-2</v>
+        <f>_xlfn.STDEV.S('CA3'!C26:C49)</f>
+        <v>8.1431920518823933E-2</v>
       </c>
       <c r="K57" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -9363,18 +8663,18 @@
         <v>158</v>
       </c>
       <c r="B58">
-        <f>AVERAGE(TgLvWtC!C50:C75)</f>
-        <v>3.727296153846154E-2</v>
+        <f>AVERAGE('CA3'!C50:C75)</f>
+        <v>7.9489192307692288E-2</v>
       </c>
       <c r="C58">
-        <f>_xlfn.STDEV.S(TgLvWtC!C50:C75)</f>
-        <v>4.3765093988228351E-2</v>
+        <f>_xlfn.STDEV.S('CA3'!C50:C75)</f>
+        <v>7.0737289715125079E-2</v>
       </c>
       <c r="K58" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -9382,39 +8682,39 @@
         <v>159</v>
       </c>
       <c r="B59">
-        <f>AVERAGE(TgLvWtC!C76:C101)</f>
-        <v>7.2496961538461538E-2</v>
+        <f>AVERAGE('CA3'!C76:C101)</f>
+        <v>3.3513999999999995E-2</v>
       </c>
       <c r="C59">
-        <f>_xlfn.STDEV.S(TgLvWtC!C76:C101)</f>
-        <v>6.9625705645820671E-2</v>
+        <f>_xlfn.STDEV.S('CA3'!C76:C101)</f>
+        <v>6.4959903919879686E-2</v>
       </c>
       <c r="K59" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="K60" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="K61" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="K62" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -9436,15 +8736,15 @@
         <v>156</v>
       </c>
       <c r="B73">
-        <f>AVERAGE(TgLvWtC!D2:D25)</f>
-        <v>2.3694791666666673E-2</v>
+        <f>AVERAGE('CA3'!D2:D25)</f>
+        <v>2.0451041666666666E-2</v>
       </c>
       <c r="C73">
-        <f>_xlfn.STDEV.S(TgLvWtC!D2:D25)</f>
-        <v>6.0567066024208208E-2</v>
+        <f>_xlfn.STDEV.S('CA3'!D2:D25)</f>
+        <v>7.8064150577797045E-2</v>
       </c>
       <c r="K73" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -9452,15 +8752,15 @@
         <v>157</v>
       </c>
       <c r="B74">
-        <f>AVERAGE(TgLvWtC!D26:D49)</f>
-        <v>7.3287999999999978E-2</v>
+        <f>AVERAGE('CA3'!D26:D49)</f>
+        <v>-4.0431208333333329E-2</v>
       </c>
       <c r="C74">
-        <f>_xlfn.STDEV.S(TgLvWtC!D26:D49)</f>
-        <v>6.1957928542014651E-2</v>
+        <f>_xlfn.STDEV.S('CA3'!D26:D49)</f>
+        <v>7.7154509424400664E-2</v>
       </c>
       <c r="K74" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -9468,15 +8768,15 @@
         <v>158</v>
       </c>
       <c r="B75">
-        <f>AVERAGE(TgLvWtC!D50:D75)</f>
-        <v>1.408426923076923E-2</v>
+        <f>AVERAGE('CA3'!D50:D75)</f>
+        <v>6.4313769230769244E-2</v>
       </c>
       <c r="C75">
-        <f>_xlfn.STDEV.S(TgLvWtC!D50:D75)</f>
-        <v>5.8119416016720396E-2</v>
+        <f>_xlfn.STDEV.S('CA3'!D50:D75)</f>
+        <v>5.4115981230174637E-2</v>
       </c>
       <c r="K75" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -9484,46 +8784,46 @@
         <v>159</v>
       </c>
       <c r="B76">
-        <f>AVERAGE(TgLvWtC!D76:D101)</f>
-        <v>2.5385769230769212E-3</v>
+        <f>AVERAGE('CA3'!D76:D101)</f>
+        <v>3.1378269230769223E-2</v>
       </c>
       <c r="C76">
-        <f>_xlfn.STDEV.S(TgLvWtC!D76:D101)</f>
-        <v>6.1665873190394759E-2</v>
+        <f>_xlfn.STDEV.S('CA3'!D76:D101)</f>
+        <v>7.9408599371381783E-2</v>
       </c>
       <c r="K76" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="K77" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="K78" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="K79" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="K80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="11:13">
       <c r="K81" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="11:13">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sheepy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="10755" windowHeight="4455" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="10758" windowHeight="4458" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CA1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,14 @@
     <sheet name="GM" sheetId="2" r:id="rId3"/>
     <sheet name="analysis" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">analysis!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.1" hidden="1">analysis!$B$2</definedName>
+    <definedName name="_xlchart.2" hidden="1">analysis!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.3" hidden="1">analysis!$C$2</definedName>
+    <definedName name="_xlchart.4" hidden="1">analysis!$C$3:$C$6</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1257,8 +1269,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1275,13 +1287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Gulliver"/>
@@ -1291,6 +1296,8 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1298,6 +1305,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1329,7 +1338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,9 +1354,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1358,12 +1364,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1376,31 +1385,146 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CA1_TgLNBPvWtCON</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>analysis!$C$3:$C$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.9192232141529956E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.4999796052412669E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.0653011182678747E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.411619767906379E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>analysis!$C$3:$C$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.9192232141529956E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.4999796052412669E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.0653011182678747E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.411619767906379E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$2:$A$5</c:f>
+              <c:f>analysis!$A$3:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1420,7 +1544,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$B$2:$B$5</c:f>
+              <c:f>analysis!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1439,25 +1563,448 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86B1-44C9-A10B-D0F09EC0E024}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1103316912"/>
+        <c:axId val="1103305264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1103316912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>组别</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1103305264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1103305264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>连接强度均值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1103316912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>GM_TgLNBPvWtCON</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>analysis!$C$21:$C$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.0175692097068323E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.6372803511993275E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.8614906478537602E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.8265828395719666E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>analysis!$C$21:$C$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.0175692097068323E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.6372803511993275E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.8614906478537602E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.8265828395719666E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$2:$A$5</c:f>
+              <c:f>analysis!$A$21:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1477,25 +2024,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$C$2:$C$5</c:f>
+              <c:f>analysis!$B$21:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.9192232141529956E-2</c:v>
+                  <c:v>2.6118458333333327E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4999796052412669E-2</c:v>
+                  <c:v>-2.3765041666666653E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0653011182678747E-2</c:v>
+                  <c:v>7.1794461538461529E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.411619767906379E-2</c:v>
+                  <c:v>3.3671076923076929E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45B3-45EE-80AD-FE3AEEEA0843}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1505,22 +2057,112 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="143168640"/>
-        <c:axId val="143170176"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1103324400"/>
+        <c:axId val="1103324816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143168640"/>
+        <c:axId val="1103324400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>组别</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143170176"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1103324816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1528,31 +2170,154 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143170176"/>
+        <c:axId val="1103324816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>连接去强度均值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143168640"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1103324400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1561,8 +2326,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1575,31 +2340,150 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CA3_TgLNBPvWtCON</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>analysis!$C$40:$C$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.2480922302925991E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.1431920518823933E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.0737289715125079E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.4959903919879686E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>analysis!$C$40:$C$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.2480922302925991E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.1431920518823933E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.0737289715125079E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.4959903919879686E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$39:$A$42</c:f>
+              <c:f>analysis!$A$40:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1619,7 +2503,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$B$39:$B$42</c:f>
+              <c:f>analysis!$B$40:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1638,25 +2522,475 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-774B-4DA6-815F-E658B42455A6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1095550240"/>
+        <c:axId val="1095551072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1095550240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>均值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1095551072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1095551072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>连接强度均值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1095550240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CA3_TgLNBPvWtCON</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>analysis!$C$60:$C$63</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.8064150577797045E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.7154509424400664E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.4115981230174637E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.9408599371381783E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>analysis!$C$60:$C$63</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.8064150577797045E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.7154509424400664E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.4115981230174637E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.9408599371381783E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>analysis!$A$39:$A$42</c:f>
+              <c:f>analysis!$A$60:$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1676,150 +3010,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>analysis!$C$39:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.2480922302925991E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1431920518823933E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0737289715125079E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4959903919879686E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="151821696"/>
-        <c:axId val="151921792"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="151821696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151921792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="151921792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151821696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$56:$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$56:$B$59</c:f>
+              <c:f>analysis!$B$60:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1838,63 +3029,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$56:$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$C$56:$C$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.8064150577797045E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7154509424400664E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4115981230174637E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.9408599371381783E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2496-454A-8B84-26B3C2BB4AC9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1904,22 +3043,112 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="151935232"/>
-        <c:axId val="151941120"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="905771616"/>
+        <c:axId val="905768704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151935232"/>
+        <c:axId val="905771616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>组别</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151941120"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905768704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1927,432 +3156,154 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151941120"/>
+        <c:axId val="905768704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>连接强度均值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151935232"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905771616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$20:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$20:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.6118458333333327E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.3765041666666653E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1794461538461529E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3671076923076929E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$20:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$C$20:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.0175692097068323E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6372803511993275E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8614906478537602E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8265828395719666E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="151995520"/>
-        <c:axId val="151997056"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="151995520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151997056"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="151997056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151995520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>-1.9593916666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5462999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.6489999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.7426999999999997E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.9192232141529956E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4999796052412669E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0653011182678747E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.411619767906379E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="152076288"/>
-        <c:axId val="152077824"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="152076288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152077824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="152077824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152076288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2361,606 +3312,2176 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$20:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$20:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.6118458333333327E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.3765041666666653E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1794461538461529E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3671076923076929E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$20:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$C$20:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.0175692097068323E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6372803511993275E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8614906478537602E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8265828395719666E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="153949696"/>
-        <c:axId val="153951232"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="153949696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153951232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="153951232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153949696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$39:$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$39:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.7682458333333337E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.4031416666666668E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9489192307692288E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3513999999999995E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$39:$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$C$39:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.2480922302925991E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1431920518823933E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0737289715125079E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4959903919879686E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="153963904"/>
-        <c:axId val="153969792"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="153963904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153969792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="153969792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153963904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$B$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>均值</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$56:$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$B$56:$B$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0451041666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.0431208333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.4313769230769244E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1378269230769223E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>analysis!$C$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>方差</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>analysis!$A$56:$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>TgCON</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TgLNBP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>WtCON</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WtLNBP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>analysis!$C$56:$C$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.8064150577797045E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7154509424400664E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4115981230174637E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.9408599371381783E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="154085248"/>
-        <c:axId val="154086784"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="154085248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154086784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="154086784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154085248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2968,734 +5489,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>20514</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76341</cdr:x>
-      <cdr:y>0.82939</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3490293" y="2275187"/>
-          <a:ext cx="1081707" cy="468013"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="17780" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="000000">
-                      <a:tint val="92000"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="49000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="89000"/>
-                      <a:shade val="90000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="100000"/>
-                      <a:shade val="75000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="95000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="47000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="39000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Mean1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="17780" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="000000">
-                    <a:tint val="92000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="49000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="89000"/>
-                    <a:shade val="90000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="100000"/>
-                    <a:shade val="75000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="95000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="47000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="39000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76319</cdr:x>
-      <cdr:y>0.82939</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99979</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3489325" y="2275187"/>
-          <a:ext cx="1081707" cy="468013"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="17780" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="000000">
-                      <a:tint val="92000"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="49000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="89000"/>
-                      <a:shade val="90000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="100000"/>
-                      <a:shade val="75000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="95000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="47000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="39000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Mean2</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="17780" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="000000">
-                    <a:tint val="92000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="49000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="89000"/>
-                    <a:shade val="90000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="100000"/>
-                    <a:shade val="75000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="95000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="47000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="39000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76341</cdr:x>
-      <cdr:y>0.82939</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3490294" y="2275187"/>
-          <a:ext cx="1081706" cy="468013"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="17780" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="000000">
-                      <a:tint val="92000"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="49000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="89000"/>
-                      <a:shade val="90000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="100000"/>
-                      <a:shade val="75000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="95000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="47000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="39000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Mean1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="17780" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="000000">
-                    <a:tint val="92000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="49000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="89000"/>
-                    <a:shade val="90000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="100000"/>
-                    <a:shade val="75000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="95000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="47000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="39000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4397</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>461597</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3712,22 +5519,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>638907</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>439615</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99645</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>46892</xdr:rowOff>
+      <xdr:rowOff>83526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3743,23 +5548,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2930</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>446942</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102576</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>68873</xdr:rowOff>
+      <xdr:rowOff>54219</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="图表 10"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="14" name="图表 13"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3775,23 +5578,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20515</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>439615</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>46892</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120161</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="图表 11"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3806,428 +5607,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76341</cdr:x>
-      <cdr:y>0.82939</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3490293" y="2275187"/>
-          <a:ext cx="1081707" cy="468013"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="17780" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="000000">
-                      <a:tint val="92000"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="49000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="89000"/>
-                      <a:shade val="90000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="100000"/>
-                      <a:shade val="75000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="95000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="47000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="39000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Mean1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="17780" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="000000">
-                    <a:tint val="92000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="49000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="89000"/>
-                    <a:shade val="90000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="100000"/>
-                    <a:shade val="75000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="95000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="47000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="39000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76319</cdr:x>
-      <cdr:y>0.82939</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99979</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3489325" y="2275187"/>
-          <a:ext cx="1081707" cy="468013"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="17780" cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="000000">
-                      <a:tint val="92000"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="49000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="89000"/>
-                      <a:shade val="90000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="000000">
-                      <a:tint val="100000"/>
-                      <a:shade val="75000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="95000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="47000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="000000">
-                      <a:shade val="39000"/>
-                      <a:satMod val="150000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000"/>
-              </a:gradFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Mean2</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="17780" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="000000">
-                    <a:tint val="92000"/>
-                    <a:shade val="100000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="49000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="89000"/>
-                    <a:shade val="90000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="000000">
-                    <a:tint val="100000"/>
-                    <a:shade val="75000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="95000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="47000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="000000">
-                    <a:shade val="39000"/>
-                    <a:satMod val="150000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4273,7 +5652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4308,7 +5687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4519,15 +5898,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="35.25" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="35.26171875" customWidth="1"/>
+    <col min="2" max="2" width="15.3671875" customWidth="1"/>
+    <col min="3" max="3" width="10.47265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5645,7 +7024,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5653,15 +7031,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="36.1015625" customWidth="1"/>
+    <col min="2" max="2" width="11.47265625" customWidth="1"/>
+    <col min="3" max="3" width="12.89453125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7083,7 +8461,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7095,12 +8472,12 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="14.1015625" customWidth="1"/>
+    <col min="3" max="3" width="11.734375" customWidth="1"/>
+    <col min="4" max="4" width="11.62890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8218,489 +9595,511 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
         <v>154</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>156</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <f>AVERAGE('CA1'!C2:C25)</f>
         <v>-1.9593916666666666E-2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <f>_xlfn.STDEV.S('CA1'!C2:C25)</f>
         <v>7.9192232141529956E-2</v>
       </c>
-      <c r="K2" t="s">
-        <v>368</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>157</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f>AVERAGE('CA1'!C26,'CA1'!C49)</f>
         <v>5.5462999999999998E-2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f>_xlfn.STDEV.S('CA1'!C26,'CA1'!C49)</f>
         <v>9.4999796052412669E-2</v>
       </c>
-      <c r="K3" t="s">
-        <v>369</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>158</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>AVERAGE('CA1'!C50,'CA1'!C75)</f>
         <v>-3.6489999999999995E-3</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f>_xlfn.STDEV.S('CA1'!C50:C75)</f>
         <v>6.0653011182678747E-2</v>
       </c>
-      <c r="K4" t="s">
-        <v>372</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>AVERAGE('CA1'!C76,'CA1'!C101)</f>
         <v>-4.7426999999999997E-2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f>_xlfn.STDEV.S('CA1'!C76:C101)</f>
         <v>9.411619767906379E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="K7" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>394</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" t="s">
         <v>154</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
         <v>156</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <f>AVERAGE(GM!C2:C25)</f>
         <v>2.6118458333333327E-2</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <f>_xlfn.STDEV.S(GM!C2:C25)</f>
         <v>7.0175692097068323E-2</v>
       </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
         <v>157</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <f>AVERAGE(GM!C26:C49)</f>
         <v>-2.3765041666666653E-2</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <f>_xlfn.STDEV.S(GM!C26:C49)</f>
         <v>6.6372803511993275E-2</v>
       </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
         <v>158</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <f>AVERAGE(GM!C50:C75)</f>
         <v>7.1794461538461529E-2</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <f>_xlfn.STDEV.S(GM!C50:C75)</f>
         <v>6.8614906478537602E-2</v>
       </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
         <v>159</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <f>AVERAGE(GM!C76:C101)</f>
         <v>3.3671076923076929E-2</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <f>_xlfn.STDEV.S(GM!C76:C101)</f>
         <v>6.8265828395719666E-2</v>
       </c>
-      <c r="K23" t="s">
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
         <v>374</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="K24" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
         <v>162</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="K25" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
         <v>375</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="K26" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
         <v>377</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="K27" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
         <v>376</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="K29" t="s">
+    <row r="31" spans="1:12">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
         <v>395</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="M37" s="2"/>
-    </row>
     <row r="38" spans="1:13">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>160</v>
       </c>
-      <c r="B38" t="s">
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" t="s">
         <v>154</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
         <v>156</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <f>AVERAGE('CA3'!C2:C25)</f>
         <v>2.7682458333333337E-2</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <f>_xlfn.STDEV.S('CA3'!C2:C25)</f>
         <v>6.2480922302925991E-2</v>
       </c>
-      <c r="K39" t="s">
-        <v>163</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
         <v>157</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <f>AVERAGE('CA3'!C26:C49)</f>
         <v>-3.4031416666666668E-2</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <f>_xlfn.STDEV.S('CA3'!C26:C49)</f>
         <v>8.1431920518823933E-2</v>
       </c>
-      <c r="K40" t="s">
-        <v>383</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
         <v>158</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <f>AVERAGE('CA3'!C50:C75)</f>
         <v>7.9489192307692288E-2</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <f>_xlfn.STDEV.S('CA3'!C50:C75)</f>
         <v>7.0737289715125079E-2</v>
       </c>
-      <c r="K41" t="s">
-        <v>384</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
         <v>159</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <f>AVERAGE('CA3'!C76:C101)</f>
         <v>3.3513999999999995E-2</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <f>_xlfn.STDEV.S('CA3'!C76:C101)</f>
         <v>6.4959903919879686E-2</v>
       </c>
-      <c r="K42" t="s">
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
         <v>389</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="K43" t="s">
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
         <v>385</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="K44" t="s">
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
         <v>386</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="K45" t="s">
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
         <v>387</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="K46" t="s">
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
         <v>388</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="K48" t="s">
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
         <v>396</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="K49" t="s">
-        <v>397</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="N52" s="2"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
+        <v>397</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B58" t="s">
         <v>161</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="59" spans="1:14">
+      <c r="B59" t="s">
         <v>154</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C59" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" t="s">
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
         <v>156</v>
       </c>
-      <c r="B56">
+      <c r="B60">
         <f>AVERAGE('CA3'!D2:D25)</f>
         <v>2.0451041666666666E-2</v>
       </c>
-      <c r="C56">
+      <c r="C60">
         <f>_xlfn.STDEV.S('CA3'!D2:D25)</f>
         <v>7.8064150577797045E-2</v>
       </c>
-      <c r="K56" t="s">
-        <v>383</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="s">
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
         <v>157</v>
       </c>
-      <c r="B57">
+      <c r="B61">
         <f>AVERAGE('CA3'!D26:D49)</f>
         <v>-4.0431208333333329E-2</v>
       </c>
-      <c r="C57">
+      <c r="C61">
         <f>_xlfn.STDEV.S('CA3'!D26:D49)</f>
         <v>7.7154509424400664E-2</v>
       </c>
-      <c r="K57" t="s">
-        <v>385</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" t="s">
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
         <v>158</v>
       </c>
-      <c r="B58">
+      <c r="B62">
         <f>AVERAGE('CA3'!D50:D75)</f>
         <v>6.4313769230769244E-2</v>
       </c>
-      <c r="C58">
+      <c r="C62">
         <f>_xlfn.STDEV.S('CA3'!D50:D75)</f>
         <v>5.4115981230174637E-2</v>
       </c>
-      <c r="K58" t="s">
-        <v>386</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" t="s">
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
         <v>159</v>
       </c>
-      <c r="B59">
+      <c r="B63">
         <f>AVERAGE('CA3'!D76:D101)</f>
         <v>3.1378269230769223E-2</v>
       </c>
-      <c r="C59">
+      <c r="C63">
         <f>_xlfn.STDEV.S('CA3'!D76:D101)</f>
         <v>7.9408599371381783E-2</v>
       </c>
-      <c r="K59" t="s">
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>385</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>386</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
         <v>387</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
-      <c r="K60" t="s">
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
         <v>388</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="L61" s="2"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="K63" t="s">
+    <row r="70" spans="1:13">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
         <v>397</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="L64" s="2"/>
-    </row>
-    <row r="70" spans="12:13">
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="72" spans="12:13">
-      <c r="L72" s="2"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="L74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="400">
   <si>
     <t>File</t>
   </si>
@@ -2363,7 +2363,7 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>CA3_TgLNBPvWtCON</a:t>
+              <a:t>CA3_TgLNBPvWtCON for region 1</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="zh-CN">
               <a:effectLst/>
@@ -2856,7 +2856,7 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>CA3_TgLNBPvWtCON</a:t>
+              <a:t>CA3_TgLNBPvWtCON for region 2</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="zh-CN">
               <a:effectLst/>
@@ -9602,8 +9602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -9825,6 +9825,9 @@
       </c>
     </row>
     <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="B38" t="s">
         <v>160</v>
       </c>
